--- a/list_p5_event_2019.xlsx
+++ b/list_p5_event_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DF3A67-3C89-154C-A7C9-0295C647A7D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A119E9-CCEE-824F-A7EA-27F36391DC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="480" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$E$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list_p6!$F$1:$F$56</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="264">
   <si>
     <t>管理対象ID</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>2019-08-31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>開催年</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1969,19 +1973,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomLeft" activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="10" max="11" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1">
+    <row r="1" spans="1:15" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -1992,93 +1996,101 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.6">
+    <row r="2" spans="1:15" ht="409.6">
       <c r="A2">
         <v>49</v>
       </c>
       <c r="C2">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="s">
         <v>83</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>137</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>162</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M2" s="12">
+      <c r="N2" s="12">
         <v>4</v>
       </c>
-      <c r="N2" s="4" t="str">
+      <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
-    rdfs:label """&amp;D2&amp;"""@ja .
+    rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;H2&amp;"&gt; ;
-    crm:P14 """&amp;I2&amp;""" ;
-    crm:P67 &lt;"&amp;L2&amp;"&gt; ;
+    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14 """&amp;J2&amp;""" ;
+    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;J2&amp;""" ;
-        crm:P115 """&amp;K2&amp;""" 
+        crm:P116 """&amp;K2&amp;""" ;
+        crm:P115 """&amp;L2&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:49
     rdfs:label "甑島のトシドン"@ja .
 &lt;https://w3id.org/ifcp/49/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:49 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
@@ -2089,60 +2101,65 @@
     ] . </v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="409.6">
+    <row r="3" spans="1:15" ht="409.6">
       <c r="A3">
         <v>51</v>
       </c>
       <c r="C3">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>140</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>110</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>161</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M3" s="12">
+      <c r="N3" s="12">
         <v>4</v>
       </c>
-      <c r="N3" s="4" t="str">
-        <f t="shared" ref="N3:N38" si="0">"ifcp:"&amp;A3&amp;"
-    rdfs:label """&amp;D3&amp;"""@ja .
+      <c r="O3" s="4" t="str">
+        <f t="shared" ref="O3:O38" si="0">"ifcp:"&amp;A3&amp;"
+    rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
+    crm:P170 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;H3&amp;"&gt; ;
-    crm:P14 """&amp;I3&amp;""" ;
-    crm:P67 &lt;"&amp;L3&amp;"&gt; ;
+    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14 """&amp;J3&amp;""" ;
+    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
     crm:P4 [
-        crm:P116 """&amp;J3&amp;""" ;
-        crm:P115 """&amp;K3&amp;""" 
+        crm:P116 """&amp;K3&amp;""" ;
+        crm:P115 """&amp;L3&amp;""" 
     ] . "</f>
         <v xml:space="preserve">ifcp:51
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;https://w3id.org/ifcp/51/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:51 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14 "男鹿のナマハゲ保存会" ;
@@ -2153,7 +2170,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="409.6">
+    <row r="4" spans="1:15" ht="409.6">
       <c r="A4">
         <v>67</v>
       </c>
@@ -2163,42 +2180,46 @@
       <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>152</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>164</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>39</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" t="s">
         <v>208</v>
       </c>
-      <c r="M4" s="12">
+      <c r="N4" s="12">
         <v>2</v>
       </c>
-      <c r="N4" s="4" t="str">
+      <c r="O4" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2019/1&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2209,7 +2230,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="409.6">
+    <row r="5" spans="1:15" ht="409.6">
       <c r="A5">
         <v>67</v>
       </c>
@@ -2219,42 +2240,46 @@
       <c r="C5">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>2019</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>152</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>101</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>165</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>39</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M5" t="s">
         <v>208</v>
       </c>
-      <c r="M5" s="12">
+      <c r="N5" s="12">
         <v>2</v>
       </c>
-      <c r="N5" s="4" t="str">
+      <c r="O5" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2019/2&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2265,49 +2290,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A6" s="8">
         <v>109</v>
       </c>
       <c r="C6" s="8">
         <v>154</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="M6" s="12">
+      <c r="N6" s="12">
         <v>4</v>
       </c>
-      <c r="N6" s="4" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;https://w3id.org/ifcp/109/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:109 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
@@ -2318,49 +2347,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="409.6">
+    <row r="7" spans="1:15" ht="409.6">
       <c r="A7">
         <v>110</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>3</v>
       </c>
-      <c r="N7" s="4" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;https://w3id.org/ifcp/110/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:110 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14 "六郷町カマクラ保存会" ;
@@ -2371,49 +2404,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="409.6">
+    <row r="8" spans="1:15" ht="409.6">
       <c r="A8">
         <v>124</v>
       </c>
       <c r="C8">
         <v>155</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>80</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="M8" s="12">
+      <c r="N8" s="12">
         <v>1</v>
       </c>
-      <c r="N8" s="4" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;https://w3id.org/ifcp/124/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:124 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14 "秋名ヒラセマンカイ保存会" ;
@@ -2424,47 +2461,51 @@
     ] . </v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="409.6">
+    <row r="9" spans="1:15" ht="409.6">
       <c r="A9">
         <v>131</v>
       </c>
       <c r="C9">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>26</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" t="s">
         <v>217</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="4" t="str">
+      <c r="N9" s="12"/>
+      <c r="O9" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
 &lt;https://w3id.org/ifcp/131/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:131 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14 "猪俣の百八灯保存会" ;
@@ -2475,49 +2516,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="409.6">
+    <row r="10" spans="1:15" ht="409.6">
       <c r="A10">
         <v>135</v>
       </c>
       <c r="C10">
         <v>141</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>77</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="M10" s="12">
+      <c r="N10" s="12">
         <v>3</v>
       </c>
-      <c r="N10" s="4" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;https://w3id.org/ifcp/135/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:135 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14 "下崎山町内会" ;
@@ -2528,49 +2573,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="409.6">
+    <row r="11" spans="1:15" ht="409.6">
       <c r="A11">
         <v>138</v>
       </c>
       <c r="C11">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>33</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="4" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
 &lt;https://w3id.org/ifcp/138/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:138 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14 "青海竹のからかい保存会" ;
@@ -2581,49 +2630,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="409.6">
+    <row r="12" spans="1:15" ht="409.6">
       <c r="A12">
         <v>140</v>
       </c>
       <c r="C12">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>146</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>48</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="M12" s="12">
+      <c r="N12" s="12">
         <v>2</v>
       </c>
-      <c r="N12" s="4" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;https://w3id.org/ifcp/140/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:140 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14 "松尾地下，河内地下" ;
@@ -2634,49 +2687,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="409.6">
+    <row r="13" spans="1:15" ht="409.6">
       <c r="A13">
         <v>145</v>
       </c>
       <c r="C13">
         <v>124</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="12">
+      <c r="N13" s="12">
         <v>2</v>
       </c>
-      <c r="N13" s="4" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/145/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:145 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
@@ -2687,49 +2744,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="409.6">
+    <row r="14" spans="1:15" ht="409.6">
       <c r="A14">
         <v>156</v>
       </c>
       <c r="C14">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>154</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>173</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>174</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="M14" s="12">
+      <c r="N14" s="12">
         <v>2</v>
       </c>
-      <c r="N14" s="4" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;https://w3id.org/ifcp/156/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:156 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14 "野沢温泉村野沢組" ;
@@ -2740,49 +2801,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="409.6">
+    <row r="15" spans="1:15" ht="409.6">
       <c r="A15">
         <v>158</v>
       </c>
       <c r="C15">
         <v>162</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>2019</v>
+      </c>
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>89</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>142</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>119</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>175</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>90</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="M15" s="12">
+      <c r="N15" s="12">
         <v>3</v>
       </c>
-      <c r="N15" s="4" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;https://w3id.org/ifcp/158/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:158 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
@@ -2793,49 +2858,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="409.6">
+    <row r="16" spans="1:15" ht="409.6">
       <c r="A16">
         <v>162</v>
       </c>
       <c r="C16">
         <v>136</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>2019</v>
+      </c>
+      <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>71</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" t="s">
         <v>230</v>
       </c>
-      <c r="M16" s="12">
+      <c r="N16" s="12">
         <v>4</v>
       </c>
-      <c r="N16" s="4" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;https://w3id.org/ifcp/162/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:162 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14 "大善寺玉垂宮鬼夜保存会" ;
@@ -2846,49 +2915,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="409.6">
+    <row r="17" spans="1:15" ht="409.6">
       <c r="A17">
         <v>167</v>
       </c>
       <c r="C17">
         <v>679</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>156</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>120</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>178</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>56</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M17" t="s">
         <v>233</v>
       </c>
-      <c r="M17" s="12">
+      <c r="N17" s="12">
         <v>1</v>
       </c>
-      <c r="N17" s="4" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;https://w3id.org/ifcp/167/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:167 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14 "念仏寺鬼はしり保存会" ;
@@ -2899,49 +2972,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="409.6">
+    <row r="18" spans="1:15" ht="409.6">
       <c r="A18">
         <v>179</v>
       </c>
       <c r="C18">
         <v>675</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>2019</v>
+      </c>
+      <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>151</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>121</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>179</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>29</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="M18" s="12">
+      <c r="N18" s="12">
         <v>2</v>
       </c>
-      <c r="N18" s="4" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:179
     rdfs:label "大磯の左義長"@ja .
 &lt;https://w3id.org/ifcp/179/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:179 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14 "大磯町左義長保存会" ;
@@ -2952,49 +3029,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="409.6">
+    <row r="19" spans="1:15" ht="409.6">
       <c r="A19">
         <v>188</v>
       </c>
       <c r="C19">
         <v>662</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19">
+        <v>2019</v>
+      </c>
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>140</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>122</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>180</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M19" t="s">
         <v>235</v>
       </c>
-      <c r="M19" s="12">
+      <c r="N19" s="12">
         <v>2</v>
       </c>
-      <c r="N19" s="4" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/188/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:188 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
@@ -3005,7 +3086,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="409.6">
+    <row r="20" spans="1:15" ht="409.6">
       <c r="A20">
         <v>195</v>
       </c>
@@ -3015,42 +3096,46 @@
       <c r="C20">
         <v>712</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>2019</v>
+      </c>
+      <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>147</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="12">
+      <c r="N20" s="12">
         <v>1</v>
       </c>
-      <c r="N20" s="4" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2019/1&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3061,7 +3146,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="409.6">
+    <row r="21" spans="1:15" ht="409.6">
       <c r="A21">
         <v>195</v>
       </c>
@@ -3071,42 +3156,46 @@
       <c r="C21">
         <v>712</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21">
+        <v>2019</v>
+      </c>
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>147</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>23</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M21" s="12">
+      <c r="N21" s="12">
         <v>1</v>
       </c>
-      <c r="N21" s="4" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2019/2&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3117,7 +3206,7 @@
     ] . </v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="409.6">
+    <row r="22" spans="1:15" ht="409.6">
       <c r="A22">
         <v>195</v>
       </c>
@@ -3127,42 +3216,46 @@
       <c r="C22">
         <v>712</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>183</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>23</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="M22" s="12">
+      <c r="N22" s="12">
         <v>1</v>
       </c>
-      <c r="N22" s="4" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2019/3&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3173,49 +3266,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="409.6">
+    <row r="23" spans="1:15" ht="409.6">
       <c r="A23">
         <v>204</v>
       </c>
       <c r="C23">
         <v>735</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>2019</v>
+      </c>
+      <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>143</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>123</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>184</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>12</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M23" t="s">
         <v>240</v>
       </c>
-      <c r="M23" s="12">
+      <c r="N23" s="12">
         <v>1</v>
       </c>
-      <c r="N23" s="4" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:204
     rdfs:label "米川の水かぶり"@ja .
 &lt;https://w3id.org/ifcp/204/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:204 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14 "米川の水かぶり保存会" ;
@@ -3226,49 +3323,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="409.6">
+    <row r="24" spans="1:15" ht="409.6">
       <c r="A24">
         <v>218</v>
       </c>
       <c r="C24">
         <v>760</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24">
+        <v>2019</v>
+      </c>
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>144</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>124</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>185</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>74</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="s">
         <v>242</v>
       </c>
-      <c r="M24" s="12">
+      <c r="N24" s="12">
         <v>2</v>
       </c>
-      <c r="N24" s="4" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:218
     rdfs:label "見島のカセドリ"@ja .
 &lt;https://w3id.org/ifcp/218/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:218 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14 "加勢鳥保存会" ;
@@ -3279,49 +3380,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="409.6">
+    <row r="25" spans="1:15" ht="409.6">
       <c r="A25">
         <v>221</v>
       </c>
       <c r="C25">
         <v>765</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25">
+        <v>2019</v>
+      </c>
+      <c r="E25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>143</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>125</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>186</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>7</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="s">
         <v>244</v>
       </c>
-      <c r="M25" s="12">
+      <c r="N25" s="12">
         <v>3</v>
       </c>
-      <c r="N25" s="4" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
 &lt;https://w3id.org/ifcp/221/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:221 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14 "吉浜スネカ保存会" ;
@@ -3332,49 +3437,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="409.6">
+    <row r="26" spans="1:15" ht="409.6">
       <c r="A26">
         <v>228</v>
       </c>
       <c r="C26">
         <v>768</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>2019</v>
+      </c>
+      <c r="E26" t="s">
         <v>43</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>141</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>126</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>187</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>45</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="M26" s="12">
+      <c r="N26" s="12">
         <v>3</v>
       </c>
-      <c r="N26" s="4" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;https://w3id.org/ifcp/228/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:228 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14 "鳥羽区" ;
@@ -3385,49 +3494,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="409.6">
+    <row r="27" spans="1:15" ht="409.6">
       <c r="A27">
         <v>236</v>
       </c>
       <c r="C27">
         <v>800</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27">
+        <v>2019</v>
+      </c>
+      <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>61</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>156</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>127</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>188</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>247</v>
       </c>
-      <c r="M27" s="12">
+      <c r="N27" s="12">
         <v>3</v>
       </c>
-      <c r="N27" s="4" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:236
     rdfs:label "五十猛のグロ"@ja .
 &lt;https://w3id.org/ifcp/236/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:236 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14 "大浦グロ保存会" ;
@@ -3438,49 +3551,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="409.6">
+    <row r="28" spans="1:15" ht="409.6">
       <c r="A28">
         <v>240</v>
       </c>
       <c r="C28">
         <v>809</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>2019</v>
+      </c>
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>143</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>128</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>189</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>249</v>
       </c>
-      <c r="M28" s="12">
+      <c r="N28" s="12">
         <v>3</v>
       </c>
-      <c r="N28" s="4" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;https://w3id.org/ifcp/240/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:240 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14 "えんずのわり保存会" ;
@@ -3491,49 +3608,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="409.6">
+    <row r="29" spans="1:15" ht="409.6">
       <c r="A29">
         <v>245</v>
       </c>
       <c r="C29">
         <v>813</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>2019</v>
+      </c>
+      <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>160</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>190</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>191</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>51</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="M29" s="12">
+      <c r="N29" s="12">
         <v>1</v>
       </c>
-      <c r="N29" s="4" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
 &lt;https://w3id.org/ifcp/245/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:245 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14 "東光寺追儺式及び田遊び保存会" ;
@@ -3544,49 +3665,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="409.6">
+    <row r="30" spans="1:15" ht="409.6">
       <c r="A30">
         <v>250</v>
       </c>
       <c r="C30">
         <v>824</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30">
+        <v>2019</v>
+      </c>
+      <c r="E30" t="s">
         <v>57</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>155</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>129</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>192</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>253</v>
       </c>
-      <c r="M30" s="12">
+      <c r="N30" s="12">
         <v>3</v>
       </c>
-      <c r="N30" s="4" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
 &lt;https://w3id.org/ifcp/250/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:250 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14 "酒津とんど祭り保存会" ;
@@ -3597,49 +3722,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="409.6">
+    <row r="31" spans="1:15" ht="409.6">
       <c r="A31">
         <v>253</v>
       </c>
       <c r="C31">
         <v>842</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>159</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>130</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>193</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>98</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" t="s">
         <v>255</v>
       </c>
-      <c r="M31" s="12">
+      <c r="N31" s="12">
         <v>4</v>
       </c>
-      <c r="N31" s="4" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/253/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:253 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14 "三島町年中行事保存会" ;
@@ -3650,49 +3779,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="409.6">
+    <row r="32" spans="1:15" ht="409.6">
       <c r="A32">
         <v>264</v>
       </c>
       <c r="C32">
         <v>857</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>2019</v>
+      </c>
+      <c r="E32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>148</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>65</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" t="s">
         <v>256</v>
       </c>
-      <c r="M32" s="12">
+      <c r="N32" s="12">
         <v>1</v>
       </c>
-      <c r="N32" s="4" t="str">
+      <c r="O32" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:264
     rdfs:label "阿月の神明祭"@ja .
 &lt;https://w3id.org/ifcp/264/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:264 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14 "神明祭顕彰会" ;
@@ -3703,49 +3836,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="409.6">
+    <row r="33" spans="1:15" ht="409.6">
       <c r="A33">
         <v>266</v>
       </c>
       <c r="C33">
         <v>872</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33">
+        <v>2019</v>
+      </c>
+      <c r="E33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>157</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>131</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>194</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>36</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M33" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="12">
+      <c r="N33" s="12">
         <v>1</v>
       </c>
-      <c r="N33" s="4" t="str">
+      <c r="O33" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/266/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:266 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14 "塞の神まつり保存会" ;
@@ -3756,49 +3893,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="409.6">
+    <row r="34" spans="1:15" ht="409.6">
       <c r="A34">
         <v>269</v>
       </c>
       <c r="C34">
         <v>874</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34">
+        <v>2019</v>
+      </c>
+      <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>151</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>195</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>196</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>31</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="s">
         <v>257</v>
       </c>
-      <c r="M34" s="12">
+      <c r="N34" s="12">
         <v>3</v>
       </c>
-      <c r="N34" s="4" t="str">
+      <c r="O34" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;https://w3id.org/ifcp/269/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:269 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14 "三戸お精霊流し保存会" ;
@@ -3809,49 +3950,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="409.6">
+    <row r="35" spans="1:15" ht="409.6">
       <c r="A35">
         <v>277</v>
       </c>
       <c r="C35">
         <v>883</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>2019</v>
+      </c>
+      <c r="E35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>53</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>156</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>133</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>197</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>107</v>
       </c>
-      <c r="M35" s="12">
+      <c r="N35" s="12">
         <v>1</v>
       </c>
-      <c r="N35" s="4" t="str">
+      <c r="O35" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
 &lt;https://w3id.org/ifcp/277/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:277 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14 "江包・大西の御綱祭り保存会" ;
@@ -3862,49 +4007,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="409.6">
+    <row r="36" spans="1:15" ht="409.6">
       <c r="A36">
         <v>278</v>
       </c>
       <c r="C36">
         <v>885</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>2019</v>
+      </c>
+      <c r="E36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>64</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>148</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>134</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>199</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>67</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L36" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" t="s">
         <v>108</v>
       </c>
-      <c r="M36" s="12">
+      <c r="N36" s="12">
         <v>1</v>
       </c>
-      <c r="N36" s="4" t="str">
+      <c r="O36" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:278
     rdfs:label "地福のトイトイ"@ja .
 &lt;https://w3id.org/ifcp/278/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:278 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14 "地福といとい保存会" ;
@@ -3915,49 +4064,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="409.6">
+    <row r="37" spans="1:15" ht="409.6">
       <c r="A37">
         <v>298</v>
       </c>
       <c r="C37">
         <v>945</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37">
+        <v>2019</v>
+      </c>
+      <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>79</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>137</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>135</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>198</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>82</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M37" t="s">
         <v>259</v>
       </c>
-      <c r="M37" s="12">
+      <c r="N37" s="12">
         <v>4</v>
       </c>
-      <c r="N37" s="4" t="str">
+      <c r="O37" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
 &lt;https://w3id.org/ifcp/298/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:298 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14 "悪石島の盆踊り保存会" ;
@@ -3968,49 +4121,53 @@
     ] . </v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="8" customFormat="1" ht="409.6">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="409.6">
       <c r="A38" s="8">
         <v>299</v>
       </c>
       <c r="C38" s="8">
         <v>944</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38">
+        <v>2019</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="K38" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="M38" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="M38" s="12">
+      <c r="N38" s="12">
         <v>1</v>
       </c>
-      <c r="N38" s="4" t="str">
+      <c r="O38" s="4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;https://w3id.org/ifcp/299/held/2019/&gt;
     rdf:type crm:E5 ;
+    crm:P170 2019 ;
     crm:P17 ifcp:299 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14 "硫黄島八朔太鼓踊り保存会" ;
@@ -4021,70 +4178,70 @@
     ] . </v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" s="4"/>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" s="4"/>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" s="4"/>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" s="4"/>
+    <row r="39" spans="1:15">
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E56" xr:uid="{A989E8B0-0D9B-0342-BDF8-B3D467B87912}"/>
+  <autoFilter ref="F1:F56" xr:uid="{A989E8B0-0D9B-0342-BDF8-B3D467B87912}"/>
   <phoneticPr fontId="18"/>
   <hyperlinks>
-    <hyperlink ref="H20" r:id="rId1" xr:uid="{3B392B49-89D1-6E42-8236-ECC196376D09}"/>
-    <hyperlink ref="H21" r:id="rId2" xr:uid="{D676ABD2-196A-B841-AAEF-3649BF254333}"/>
-    <hyperlink ref="H22" r:id="rId3" display="http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240" xr:uid="{5C7D3353-076C-B74C-8C5F-90C8644B618A}"/>
-    <hyperlink ref="H13" r:id="rId4" xr:uid="{12029A51-AA02-1A41-B066-0775A56FA658}"/>
-    <hyperlink ref="H32" r:id="rId5" xr:uid="{BD6E48F9-076F-F74F-B407-57677E52A0BB}"/>
-    <hyperlink ref="L18" r:id="rId6" xr:uid="{D0D92F78-E565-114B-A97C-E7CA5D9D997D}"/>
+    <hyperlink ref="I20" r:id="rId1" xr:uid="{3B392B49-89D1-6E42-8236-ECC196376D09}"/>
+    <hyperlink ref="I21" r:id="rId2" xr:uid="{D676ABD2-196A-B841-AAEF-3649BF254333}"/>
+    <hyperlink ref="I22" r:id="rId3" display="http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240" xr:uid="{5C7D3353-076C-B74C-8C5F-90C8644B618A}"/>
+    <hyperlink ref="I13" r:id="rId4" xr:uid="{12029A51-AA02-1A41-B066-0775A56FA658}"/>
+    <hyperlink ref="I32" r:id="rId5" xr:uid="{BD6E48F9-076F-F74F-B407-57677E52A0BB}"/>
+    <hyperlink ref="M18" r:id="rId6" xr:uid="{D0D92F78-E565-114B-A97C-E7CA5D9D997D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_p5_event_2019.xlsx
+++ b/list_p5_event_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A119E9-CCEE-824F-A7EA-27F36391DC66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B737A3-C3ED-6C4F-B1AD-C59255D527D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="480" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1977,7 +1977,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P38" sqref="P38"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2077,7 +2077,7 @@
     rdfs:label """&amp;E2&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D2&amp;" ;
+    crm:P12 "&amp;D2&amp;" ;
     crm:P17 ifcp:"&amp;A2&amp;" ;
     crm:P7 &lt;"&amp;I2&amp;"&gt; ;
     crm:P14 """&amp;J2&amp;""" ;
@@ -2090,7 +2090,7 @@
     rdfs:label "甑島のトシドン"@ja .
 &lt;https://w3id.org/ifcp/49/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:49 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
@@ -2146,7 +2146,7 @@
     rdfs:label """&amp;E3&amp;"""@ja .
 &lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5 ;
-    crm:P170 "&amp;D3&amp;" ;
+    crm:P12 "&amp;D3&amp;" ;
     crm:P17 ifcp:"&amp;A3&amp;" ;
     crm:P7 &lt;"&amp;I3&amp;"&gt; ;
     crm:P14 """&amp;J3&amp;""" ;
@@ -2159,7 +2159,7 @@
     rdfs:label "男鹿のナマハゲ"@ja .
 &lt;https://w3id.org/ifcp/51/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:51 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14 "男鹿のナマハゲ保存会" ;
@@ -2219,7 +2219,7 @@
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2019/1&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2279,7 +2279,7 @@
     rdfs:label "能登のアマメハギ"@ja .
 &lt;https://w3id.org/ifcp/67/held/2019/2&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:67 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
@@ -2336,7 +2336,7 @@
     rdfs:label "南薩摩の十五夜行事"@ja .
 &lt;https://w3id.org/ifcp/109/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:109 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
@@ -2393,7 +2393,7 @@
     rdfs:label "六郷のカマクラ行事"@ja .
 &lt;https://w3id.org/ifcp/110/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:110 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14 "六郷町カマクラ保存会" ;
@@ -2450,7 +2450,7 @@
     rdfs:label "秋名のアラセツ行事"@ja .
 &lt;https://w3id.org/ifcp/124/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:124 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14 "秋名ヒラセマンカイ保存会" ;
@@ -2505,7 +2505,7 @@
     rdfs:label "猪俣の百八燈"@ja .
 &lt;https://w3id.org/ifcp/131/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:131 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14 "猪俣の百八灯保存会" ;
@@ -2562,7 +2562,7 @@
     rdfs:label "下崎山のヘトマト行事"@ja .
 &lt;https://w3id.org/ifcp/135/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:135 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14 "下崎山町内会" ;
@@ -2619,7 +2619,7 @@
     rdfs:label "青海の竹のからかい"@ja .
 &lt;https://w3id.org/ifcp/138/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:138 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14 "青海竹のからかい保存会" ;
@@ -2676,7 +2676,7 @@
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
 &lt;https://w3id.org/ifcp/140/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:140 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14 "松尾地下，河内地下" ;
@@ -2733,7 +2733,7 @@
     rdfs:label "周防祖生の柱松行事"@ja .
 &lt;https://w3id.org/ifcp/145/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:145 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
@@ -2790,7 +2790,7 @@
     rdfs:label "野沢温泉の道祖神祭り"@ja .
 &lt;https://w3id.org/ifcp/156/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:156 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14 "野沢温泉村野沢組" ;
@@ -2847,7 +2847,7 @@
     rdfs:label "宮古島のパーントゥ"@ja .
 &lt;https://w3id.org/ifcp/158/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:158 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
@@ -2904,7 +2904,7 @@
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
 &lt;https://w3id.org/ifcp/162/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:162 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14 "大善寺玉垂宮鬼夜保存会" ;
@@ -2961,7 +2961,7 @@
     rdfs:label "陀々堂の鬼はしり"@ja .
 &lt;https://w3id.org/ifcp/167/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:167 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14 "念仏寺鬼はしり保存会" ;
@@ -3018,7 +3018,7 @@
     rdfs:label "大磯の左義長"@ja .
 &lt;https://w3id.org/ifcp/179/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:179 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14 "大磯町左義長保存会" ;
@@ -3075,7 +3075,7 @@
     rdfs:label "上郷の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/188/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:188 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
@@ -3135,7 +3135,7 @@
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2019/1&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3195,7 +3195,7 @@
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2019/2&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3255,7 +3255,7 @@
     rdfs:label "遊佐の小正月行事"@ja .
 &lt;https://w3id.org/ifcp/195/held/2019/3&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:195 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14 "遊佐のアマハゲ保存会" ;
@@ -3312,7 +3312,7 @@
     rdfs:label "米川の水かぶり"@ja .
 &lt;https://w3id.org/ifcp/204/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:204 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14 "米川の水かぶり保存会" ;
@@ -3369,7 +3369,7 @@
     rdfs:label "見島のカセドリ"@ja .
 &lt;https://w3id.org/ifcp/218/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:218 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14 "加勢鳥保存会" ;
@@ -3426,7 +3426,7 @@
     rdfs:label "吉浜のスネカ"@ja .
 &lt;https://w3id.org/ifcp/221/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:221 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14 "吉浜スネカ保存会" ;
@@ -3483,7 +3483,7 @@
     rdfs:label "鳥羽の火祭り"@ja .
 &lt;https://w3id.org/ifcp/228/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:228 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14 "鳥羽区" ;
@@ -3540,7 +3540,7 @@
     rdfs:label "五十猛のグロ"@ja .
 &lt;https://w3id.org/ifcp/236/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:236 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14 "大浦グロ保存会" ;
@@ -3597,7 +3597,7 @@
     rdfs:label "月浜のえんずのわり"@ja .
 &lt;https://w3id.org/ifcp/240/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:240 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14 "えんずのわり保存会" ;
@@ -3654,7 +3654,7 @@
     rdfs:label "東光寺の鬼会"@ja .
 &lt;https://w3id.org/ifcp/245/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:245 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14 "東光寺追儺式及び田遊び保存会" ;
@@ -3711,7 +3711,7 @@
     rdfs:label "酒津のトンドウ"@ja .
 &lt;https://w3id.org/ifcp/250/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:250 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14 "酒津とんど祭り保存会" ;
@@ -3768,7 +3768,7 @@
     rdfs:label "三島のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/253/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:253 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14 "三島町年中行事保存会" ;
@@ -3825,7 +3825,7 @@
     rdfs:label "阿月の神明祭"@ja .
 &lt;https://w3id.org/ifcp/264/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:264 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14 "神明祭顕彰会" ;
@@ -3882,7 +3882,7 @@
     rdfs:label "邑町のサイノカミ"@ja .
 &lt;https://w3id.org/ifcp/266/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:266 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14 "塞の神まつり保存会" ;
@@ -3939,7 +3939,7 @@
     rdfs:label "三戸のオショロ流し"@ja .
 &lt;https://w3id.org/ifcp/269/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:269 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14 "三戸お精霊流し保存会" ;
@@ -3996,7 +3996,7 @@
     rdfs:label "江包・大西の御綱"@ja .
 &lt;https://w3id.org/ifcp/277/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:277 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14 "江包・大西の御綱祭り保存会" ;
@@ -4053,7 +4053,7 @@
     rdfs:label "地福のトイトイ"@ja .
 &lt;https://w3id.org/ifcp/278/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:278 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14 "地福といとい保存会" ;
@@ -4110,7 +4110,7 @@
     rdfs:label "悪石島のボゼ"@ja .
 &lt;https://w3id.org/ifcp/298/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:298 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14 "悪石島の盆踊り保存会" ;
@@ -4167,7 +4167,7 @@
     rdfs:label "薩摩硫黄島のメンドン"@ja .
 &lt;https://w3id.org/ifcp/299/held/2019/&gt;
     rdf:type crm:E5 ;
-    crm:P170 2019 ;
+    crm:P12 2019 ;
     crm:P17 ifcp:299 ;
     crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14 "硫黄島八朔太鼓踊り保存会" ;

--- a/list_p5_event_2019.xlsx
+++ b/list_p5_event_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B737A3-C3ED-6C4F-B1AD-C59255D527D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97722BAD-1782-9C4C-9CED-CBEEFCCD5CD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="480" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list_p6" sheetId="1" r:id="rId1"/>
@@ -727,232 +727,232 @@
     <t>http://data.e-stat.go.jp/lod/sac/C46521-19730401</t>
   </si>
   <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>URLレイヤー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.welcomekyushu.jp/event/?mode=detail&amp;id=9999900047564&amp;isSpot=&amp;isEvent=1</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://matsuri-no-hi.com/matsuri/14616</t>
+  </si>
+  <si>
+    <t>https://wajimanavi.jp/event/アマメハギ</t>
+  </si>
+  <si>
+    <t>2019-01-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://blogs.mbc.co.jp/mbcnews/5983</t>
+  </si>
+  <si>
+    <t>2019-09-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://mainichi.jp/articles/20190226/k00/00m/040/182000c</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-02-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-09-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.city.amami.lg.jp/bunka/event/arasetsu.html</t>
+  </si>
+  <si>
+    <t>https://www.saihokunavi.net/event/event.shtml?id=51</t>
+  </si>
+  <si>
+    <t>2019-08-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.nishinippon.co.jp/item/n/480689/</t>
+  </si>
+  <si>
+    <t>2019-01-20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.city.itoigawa.lg.jp/item/22603.htm</t>
+  </si>
+  <si>
+    <t>2019-01-15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770</t>
+  </si>
+  <si>
+    <t>https://www.oidemase.or.jp/tourism-information/spots/11689</t>
+  </si>
+  <si>
+    <t>2019-08-23</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://nozawakanko.jp/record/dosojin/</t>
+  </si>
+  <si>
+    <t>2019-01-13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://ryukyushimpo.jp/news/entry-1001679.html</t>
+  </si>
+  <si>
+    <t>2019-10-04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://kurumefan.com/oniyo-kurume20200107#2019</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.city.gojo.lg.jp/kankou/dentou/4032.html</t>
+  </si>
+  <si>
+    <t>https://www.enopo.jp/2017-08-26-14-18-45/mobile-event/24740-2019.html</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130</t>
+  </si>
+  <si>
+    <t>2019-01-3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-01-03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-01-06</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html</t>
+  </si>
+  <si>
+    <t>2019-02-02</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asobo-saga.jp/event/detail.html?id=3438</t>
+  </si>
+  <si>
+    <t>2019-02-09</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASM1H44CBM1HUJUB004.html</t>
+  </si>
+  <si>
+    <t>https://www.asahi.com/articles/ASM2B5CJTM2BOQIP002.html</t>
+  </si>
+  <si>
+    <t>2019-02-10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://mainichi.jp/articles/20190112/ddl/k32/040/340000c</t>
+  </si>
+  <si>
+    <t>2019-01-11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://hibishinbun.com/news/?a=9291</t>
+  </si>
+  <si>
+    <t>2019-01-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm</t>
+  </si>
+  <si>
+    <t>2019-01-08</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.sankei.com/photo/daily/news/190112/dly1901120008-n1.html</t>
+  </si>
+  <si>
+    <t>2019-01-12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.nihon-kankou.or.jp/fukushima/074446/detail/07444ba2212035019</t>
+  </si>
+  <si>
+    <t>https://www.city-yanai.jp/site/kanko/atsukishinmei.html</t>
+  </si>
+  <si>
+    <t>https://www.kanaloco.jp/article/entry-188969.html</t>
+  </si>
+  <si>
+    <t>2019-08-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.nihon-kankou.or.jp/kagoshima/463043/detail/46304ba2210142370</t>
+  </si>
+  <si>
+    <t>https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>開催年</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>"@base &lt;https://w3id.org/ifcp/&gt; .
 @prefix rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; .
 @prefix rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; .
-@prefix crm: &lt;http://purl.org/NET/cidoc-crm/core#&gt; .
+@prefix crm: &lt;http://www.cidoc-crm.org/cidoc-crm/&gt; .
 @prefix skos: &lt;http://www.w3.org/2004/02/skos/core#&gt; .
 @prefix ifcp: &lt;https://w3id.org/ifcp/&gt; .
 @prefix cate: &lt;https://w3id.org/ifcp/category/&gt; ."</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>URLレイヤー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.welcomekyushu.jp/event/?mode=detail&amp;id=9999900047564&amp;isSpot=&amp;isEvent=1</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://matsuri-no-hi.com/matsuri/14616</t>
-  </si>
-  <si>
-    <t>https://wajimanavi.jp/event/アマメハギ</t>
-  </si>
-  <si>
-    <t>2019-01-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://blogs.mbc.co.jp/mbcnews/5983</t>
-  </si>
-  <si>
-    <t>2019-09-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://mainichi.jp/articles/20190226/k00/00m/040/182000c</t>
-  </si>
-  <si>
-    <t>2019-02-11</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-02-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-09-06</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.city.amami.lg.jp/bunka/event/arasetsu.html</t>
-  </si>
-  <si>
-    <t>https://www.saihokunavi.net/event/event.shtml?id=51</t>
-  </si>
-  <si>
-    <t>2019-08-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.nishinippon.co.jp/item/n/480689/</t>
-  </si>
-  <si>
-    <t>2019-01-20</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.city.itoigawa.lg.jp/item/22603.htm</t>
-  </si>
-  <si>
-    <t>2019-01-15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770</t>
-  </si>
-  <si>
-    <t>https://www.oidemase.or.jp/tourism-information/spots/11689</t>
-  </si>
-  <si>
-    <t>2019-08-23</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://nozawakanko.jp/record/dosojin/</t>
-  </si>
-  <si>
-    <t>2019-01-13</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://ryukyushimpo.jp/news/entry-1001679.html</t>
-  </si>
-  <si>
-    <t>2019-10-04</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://kurumefan.com/oniyo-kurume20200107#2019</t>
-  </si>
-  <si>
-    <t>2019-01-07</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-01-14</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.city.gojo.lg.jp/kankou/dentou/4032.html</t>
-  </si>
-  <si>
-    <t>https://www.enopo.jp/2017-08-26-14-18-45/mobile-event/24740-2019.html</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130</t>
-  </si>
-  <si>
-    <t>2019-01-3</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-01-03</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-01-06</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html</t>
-  </si>
-  <si>
-    <t>2019-02-02</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asobo-saga.jp/event/detail.html?id=3438</t>
-  </si>
-  <si>
-    <t>2019-02-09</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASM1H44CBM1HUJUB004.html</t>
-  </si>
-  <si>
-    <t>https://www.asahi.com/articles/ASM2B5CJTM2BOQIP002.html</t>
-  </si>
-  <si>
-    <t>2019-02-10</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://mainichi.jp/articles/20190112/ddl/k32/040/340000c</t>
-  </si>
-  <si>
-    <t>2019-01-11</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://hibishinbun.com/news/?a=9291</t>
-  </si>
-  <si>
-    <t>2019-01-16</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm</t>
-  </si>
-  <si>
-    <t>2019-01-08</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.sankei.com/photo/daily/news/190112/dly1901120008-n1.html</t>
-  </si>
-  <si>
-    <t>2019-01-12</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.nihon-kankou.or.jp/fukushima/074446/detail/07444ba2212035019</t>
-  </si>
-  <si>
-    <t>https://www.city-yanai.jp/site/kanko/atsukishinmei.html</t>
-  </si>
-  <si>
-    <t>https://www.kanaloco.jp/article/entry-188969.html</t>
-  </si>
-  <si>
-    <t>2019-08-16</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.nihon-kankou.or.jp/kagoshima/463043/detail/46304ba2210142370</t>
-  </si>
-  <si>
-    <t>https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html</t>
-  </si>
-  <si>
-    <t>2019-08-30</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2019-08-31</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>開催年</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -2026,10 +2026,10 @@
         <v>99</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.6">
@@ -2061,13 +2061,13 @@
         <v>91</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N2" s="12">
         <v>4</v>
@@ -2075,30 +2075,30 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D2&amp;" ;
-    crm:P17 ifcp:"&amp;A2&amp;" ;
-    crm:P7 &lt;"&amp;I2&amp;"&gt; ;
-    crm:P14 """&amp;J2&amp;""" ;
-    crm:P67 &lt;"&amp;M2&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K2&amp;""" ;
-        crm:P115 """&amp;L2&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:49
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J2&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K2&amp;""" ;
+        crm:P115_finishes """&amp;L2&amp;""" 
+    ] ."</f>
+        <v>ifcp:49
     rdfs:label "甑島のトシドン"@ja .
-&lt;https://w3id.org/ifcp/49/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:49 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
-    crm:P14 "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
-    crm:P67 &lt;https://www.welcomekyushu.jp/event/?mode=detail&amp;id=9999900047564&amp;isSpot=&amp;isEvent=1&gt; ;
-    crm:P4 [
-        crm:P116 "2019-12-31" ;
-        crm:P115 "2019-12-31" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/49/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:49 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
+    crm:P14_carried_out_by "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
+    crm:P67_refers_to &lt;https://www.welcomekyushu.jp/event/?mode=detail&amp;id=9999900047564&amp;isSpot=&amp;isEvent=1&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-12-31" ;
+        crm:P115_finishes "2019-12-31" 
+    ] .</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="409.6">
@@ -2130,13 +2130,13 @@
         <v>15</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="N3" s="12">
         <v>4</v>
@@ -2144,30 +2144,30 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O38" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
-    rdf:type crm:E5 ;
-    crm:P12 "&amp;D3&amp;" ;
-    crm:P17 ifcp:"&amp;A3&amp;" ;
-    crm:P7 &lt;"&amp;I3&amp;"&gt; ;
-    crm:P14 """&amp;J3&amp;""" ;
-    crm:P67 &lt;"&amp;M3&amp;"&gt; ;
-    crm:P4 [
-        crm:P116 """&amp;K3&amp;""" ;
-        crm:P115 """&amp;L3&amp;""" 
-    ] . "</f>
-        <v xml:space="preserve">ifcp:51
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
+    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
+    crm:P14_carried_out_by """&amp;J3&amp;""" ;
+    crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts """&amp;K3&amp;""" ;
+        crm:P115_finishes """&amp;L3&amp;""" 
+    ] ."</f>
+        <v>ifcp:51
     rdfs:label "男鹿のナマハゲ"@ja .
-&lt;https://w3id.org/ifcp/51/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:51 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
-    crm:P14 "男鹿のナマハゲ保存会" ;
-    crm:P67 &lt;https://matsuri-no-hi.com/matsuri/14616&gt; ;
-    crm:P4 [
-        crm:P116 "2019-12-31" ;
-        crm:P115 "2019-12-31" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/51/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:51 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
+    crm:P14_carried_out_by "男鹿のナマハゲ保存会" ;
+    crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/14616&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-12-31" ;
+        crm:P115_finishes "2019-12-31" 
+    ] .</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="409.6">
@@ -2202,32 +2202,32 @@
         <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N4" s="12">
         <v>2</v>
       </c>
       <c r="O4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:67
+        <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2019/1&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:67 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
-    crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
-    crm:P67 &lt;https://wajimanavi.jp/event/アマメハギ&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-02" ;
-        crm:P115 "2019-01-02" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/67/held/2018/1&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
+    crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
+    crm:P67_refers_to &lt;https://wajimanavi.jp/event/アマメハギ&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-02" ;
+        crm:P115_finishes "2019-01-02" 
+    ] .</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="409.6">
@@ -2262,32 +2262,32 @@
         <v>39</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N5" s="12">
         <v>2</v>
       </c>
       <c r="O5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:67
+        <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2019/2&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:67 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
-    crm:P14 "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
-    crm:P67 &lt;https://wajimanavi.jp/event/アマメハギ&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-02" ;
-        crm:P115 "2019-01-02" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/67/held/2018/2&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
+    crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
+    crm:P67_refers_to &lt;https://wajimanavi.jp/event/アマメハギ&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-02" ;
+        crm:P115_finishes "2019-01-02" 
+    ] .</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="409.6">
@@ -2319,32 +2319,32 @@
         <v>87</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N6" s="12">
         <v>4</v>
       </c>
       <c r="O6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:109
+        <v>ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
-&lt;https://w3id.org/ifcp/109/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:109 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
-    crm:P14 "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
-    crm:P67 &lt;https://blogs.mbc.co.jp/mbcnews/5983&gt; ;
-    crm:P4 [
-        crm:P116 "2019-09-14" ;
-        crm:P115 "2019-09-14" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/109/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:109 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
+    crm:P14_carried_out_by "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
+    crm:P67_refers_to &lt;https://blogs.mbc.co.jp/mbcnews/5983&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-09-14" ;
+        crm:P115_finishes "2019-09-14" 
+    ] .</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="409.6">
@@ -2376,32 +2376,32 @@
         <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N7" s="12">
         <v>3</v>
       </c>
       <c r="O7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:110
+        <v>ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
-&lt;https://w3id.org/ifcp/110/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:110 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
-    crm:P14 "六郷町カマクラ保存会" ;
-    crm:P67 &lt;https://mainichi.jp/articles/20190226/k00/00m/040/182000c&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-11" ;
-        crm:P115 "2019-02-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/110/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:110 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
+    crm:P14_carried_out_by "六郷町カマクラ保存会" ;
+    crm:P67_refers_to &lt;https://mainichi.jp/articles/20190226/k00/00m/040/182000c&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-11" ;
+        crm:P115_finishes "2019-02-15" 
+    ] .</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="409.6">
@@ -2433,32 +2433,32 @@
         <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="N8" s="12">
         <v>1</v>
       </c>
       <c r="O8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:124
+        <v>ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
-&lt;https://w3id.org/ifcp/124/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:124 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
-    crm:P14 "秋名ヒラセマンカイ保存会" ;
-    crm:P67 &lt;https://www.city.amami.lg.jp/bunka/event/arasetsu.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-09-06" ;
-        crm:P115 "2019-09-06" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/124/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:124 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
+    crm:P14_carried_out_by "秋名ヒラセマンカイ保存会" ;
+    crm:P67_refers_to &lt;https://www.city.amami.lg.jp/bunka/event/arasetsu.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-09-06" ;
+        crm:P115_finishes "2019-09-06" 
+    ] .</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="409.6">
@@ -2490,30 +2490,30 @@
         <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:131
+        <v>ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
-&lt;https://w3id.org/ifcp/131/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:131 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
-    crm:P14 "猪俣の百八灯保存会" ;
-    crm:P67 &lt;https://www.saihokunavi.net/event/event.shtml?id=51&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-15" ;
-        crm:P115 "2019-08-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/131/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:131 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
+    crm:P14_carried_out_by "猪俣の百八灯保存会" ;
+    crm:P67_refers_to &lt;https://www.saihokunavi.net/event/event.shtml?id=51&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-15" ;
+        crm:P115_finishes "2019-08-15" 
+    ] .</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="409.6">
@@ -2545,32 +2545,32 @@
         <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N10" s="12">
         <v>3</v>
       </c>
       <c r="O10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:135
+        <v>ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
-&lt;https://w3id.org/ifcp/135/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:135 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
-    crm:P14 "下崎山町内会" ;
-    crm:P67 &lt;https://www.nishinippon.co.jp/item/n/480689/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-20" ;
-        crm:P115 "2019-01-20" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/135/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:135 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
+    crm:P14_carried_out_by "下崎山町内会" ;
+    crm:P67_refers_to &lt;https://www.nishinippon.co.jp/item/n/480689/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-20" ;
+        crm:P115_finishes "2019-01-20" 
+    ] .</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="409.6">
@@ -2602,32 +2602,32 @@
         <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N11" s="12">
         <v>1</v>
       </c>
       <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:138
+        <v>ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
-&lt;https://w3id.org/ifcp/138/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:138 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
-    crm:P14 "青海竹のからかい保存会" ;
-    crm:P67 &lt;https://www.city.itoigawa.lg.jp/item/22603.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-15" ;
-        crm:P115 "2019-01-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/138/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:138 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
+    crm:P14_carried_out_by "青海竹のからかい保存会" ;
+    crm:P67_refers_to &lt;https://www.city.itoigawa.lg.jp/item/22603.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-15" ;
+        crm:P115_finishes "2019-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="409.6">
@@ -2659,32 +2659,32 @@
         <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N12" s="12">
         <v>2</v>
       </c>
       <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:140
+        <v>ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
-&lt;https://w3id.org/ifcp/140/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:140 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
-    crm:P14 "松尾地下，河内地下" ;
-    crm:P67 &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-15" ;
-        crm:P115 "2019-08-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/140/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:140 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
+    crm:P14_carried_out_by "松尾地下，河内地下" ;
+    crm:P67_refers_to &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-15" ;
+        crm:P115_finishes "2019-08-15" 
+    ] .</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="409.6">
@@ -2710,38 +2710,38 @@
         <v>118</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N13" s="12">
         <v>2</v>
       </c>
       <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:145
+        <v>ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/145/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:145 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
-    crm:P14 "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
-    crm:P67 &lt;https://www.oidemase.or.jp/tourism-information/spots/11689&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-15" ;
-        crm:P115 "2019-08-23" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/145/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:145 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
+    crm:P14_carried_out_by "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
+    crm:P67_refers_to &lt;https://www.oidemase.or.jp/tourism-information/spots/11689&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-15" ;
+        crm:P115_finishes "2019-08-23" 
+    ] .</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="409.6">
@@ -2773,32 +2773,32 @@
         <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N14" s="12">
         <v>2</v>
       </c>
       <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:156
+        <v>ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
-&lt;https://w3id.org/ifcp/156/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:156 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
-    crm:P14 "野沢温泉村野沢組" ;
-    crm:P67 &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-13" ;
-        crm:P115 "2019-01-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/156/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:156 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
+    crm:P14_carried_out_by "野沢温泉村野沢組" ;
+    crm:P67_refers_to &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-13" ;
+        crm:P115_finishes "2019-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="409.6">
@@ -2830,32 +2830,32 @@
         <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N15" s="12">
         <v>3</v>
       </c>
       <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:158
+        <v>ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
-&lt;https://w3id.org/ifcp/158/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:158 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
-    crm:P14 "宮古島市島尻自治会，宮古島市野原部落会" ;
-    crm:P67 &lt;https://ryukyushimpo.jp/news/entry-1001679.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-10-04" ;
-        crm:P115 "2019-10-04" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/158/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:158 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
+    crm:P14_carried_out_by "宮古島市島尻自治会，宮古島市野原部落会" ;
+    crm:P67_refers_to &lt;https://ryukyushimpo.jp/news/entry-1001679.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-10-04" ;
+        crm:P115_finishes "2019-10-04" 
+    ] .</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="409.6">
@@ -2887,32 +2887,32 @@
         <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N16" s="12">
         <v>4</v>
       </c>
       <c r="O16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:162
+        <v>ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
-&lt;https://w3id.org/ifcp/162/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:162 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
-    crm:P14 "大善寺玉垂宮鬼夜保存会" ;
-    crm:P67 &lt;https://kurumefan.com/oniyo-kurume20200107#2019&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-07" ;
-        crm:P115 "2019-01-07" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/162/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:162 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
+    crm:P14_carried_out_by "大善寺玉垂宮鬼夜保存会" ;
+    crm:P67_refers_to &lt;https://kurumefan.com/oniyo-kurume20200107#2019&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-07" ;
+        crm:P115_finishes "2019-01-07" 
+    ] .</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="409.6">
@@ -2944,32 +2944,32 @@
         <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" t="s">
         <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M17" t="s">
-        <v>233</v>
       </c>
       <c r="N17" s="12">
         <v>1</v>
       </c>
       <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:167
+        <v>ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
-&lt;https://w3id.org/ifcp/167/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:167 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
-    crm:P14 "念仏寺鬼はしり保存会" ;
-    crm:P67 &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-14" ;
-        crm:P115 "2019-01-14" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/167/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:167 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
+    crm:P14_carried_out_by "念仏寺鬼はしり保存会" ;
+    crm:P67_refers_to &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-14" ;
+        crm:P115_finishes "2019-01-14" 
+    ] .</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="409.6">
@@ -3001,32 +3001,32 @@
         <v>29</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N18" s="12">
         <v>2</v>
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:179
+        <v>ifcp:179
     rdfs:label "大磯の左義長"@ja .
-&lt;https://w3id.org/ifcp/179/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:179 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
-    crm:P14 "大磯町左義長保存会" ;
-    crm:P67 &lt;https://www.enopo.jp/2017-08-26-14-18-45/mobile-event/24740-2019.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-13" ;
-        crm:P115 "2019-01-13" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/179/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:179 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
+    crm:P14_carried_out_by "大磯町左義長保存会" ;
+    crm:P67_refers_to &lt;https://www.enopo.jp/2017-08-26-14-18-45/mobile-event/24740-2019.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-13" ;
+        crm:P115_finishes "2019-01-13" 
+    ] .</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="409.6">
@@ -3058,32 +3058,32 @@
         <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N19" s="12">
         <v>2</v>
       </c>
       <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:188
+        <v>ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/188/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:188 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
-    crm:P14 "横岡サエの神保存会、大森サエの神保存会" ;
-    crm:P67 &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-15" ;
-        crm:P115 "2019-01-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/188/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:188 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
+    crm:P14_carried_out_by "横岡サエの神保存会、大森サエの神保存会" ;
+    crm:P67_refers_to &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-15" ;
+        crm:P115_finishes "2019-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="409.6">
@@ -3118,10 +3118,10 @@
         <v>23</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>105</v>
@@ -3131,19 +3131,19 @@
       </c>
       <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2019/1&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
-    crm:P14 "遊佐のアマハゲ保存会" ;
-    crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-03" ;
-        crm:P115 "2019-01-3" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/195/held/2018/1&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
+    crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
+    crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-03" ;
+        crm:P115_finishes "2019-01-3" 
+    ] .</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="409.6">
@@ -3178,10 +3178,10 @@
         <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>105</v>
@@ -3191,19 +3191,19 @@
       </c>
       <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2019/2&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
-    crm:P14 "遊佐のアマハゲ保存会" ;
-    crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-01" ;
-        crm:P115 "2019-01-01" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/195/held/2018/2&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
+    crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
+    crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-01" ;
+        crm:P115_finishes "2019-01-01" 
+    ] .</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="409.6">
@@ -3238,10 +3238,10 @@
         <v>23</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>105</v>
@@ -3251,19 +3251,19 @@
       </c>
       <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:195
+        <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2019/3&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:195 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
-    crm:P14 "遊佐のアマハゲ保存会" ;
-    crm:P67 &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-06" ;
-        crm:P115 "2019-01-06" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/195/held/2018/3&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
+    crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
+    crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-06" ;
+        crm:P115_finishes "2019-01-06" 
+    ] .</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="409.6">
@@ -3295,32 +3295,32 @@
         <v>12</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N23" s="12">
         <v>1</v>
       </c>
       <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:204
+        <v>ifcp:204
     rdfs:label "米川の水かぶり"@ja .
-&lt;https://w3id.org/ifcp/204/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:204 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
-    crm:P14 "米川の水かぶり保存会" ;
-    crm:P67 &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-02" ;
-        crm:P115 "2019-02-02" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/204/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:204 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
+    crm:P14_carried_out_by "米川の水かぶり保存会" ;
+    crm:P67_refers_to &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-02" ;
+        crm:P115_finishes "2019-02-02" 
+    ] .</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="409.6">
@@ -3352,32 +3352,32 @@
         <v>74</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N24" s="12">
         <v>2</v>
       </c>
       <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:218
+        <v>ifcp:218
     rdfs:label "見島のカセドリ"@ja .
-&lt;https://w3id.org/ifcp/218/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:218 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
-    crm:P14 "加勢鳥保存会" ;
-    crm:P67 &lt;https://www.asobo-saga.jp/event/detail.html?id=3438&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-09" ;
-        crm:P115 "2019-02-09" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/218/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:218 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
+    crm:P14_carried_out_by "加勢鳥保存会" ;
+    crm:P67_refers_to &lt;https://www.asobo-saga.jp/event/detail.html?id=3438&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-09" ;
+        crm:P115_finishes "2019-02-09" 
+    ] .</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="409.6">
@@ -3409,32 +3409,32 @@
         <v>7</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N25" s="12">
         <v>3</v>
       </c>
       <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:221
+        <v>ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
-&lt;https://w3id.org/ifcp/221/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:221 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
-    crm:P14 "吉浜スネカ保存会" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASM1H44CBM1HUJUB004.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-15" ;
-        crm:P115 "2019-01-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/221/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:221 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
+    crm:P14_carried_out_by "吉浜スネカ保存会" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM1H44CBM1HUJUB004.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-15" ;
+        crm:P115_finishes "2019-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="409.6">
@@ -3466,32 +3466,32 @@
         <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N26" s="12">
         <v>3</v>
       </c>
       <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:228
+        <v>ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
-&lt;https://w3id.org/ifcp/228/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:228 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
-    crm:P14 "鳥羽区" ;
-    crm:P67 &lt;https://www.asahi.com/articles/ASM2B5CJTM2BOQIP002.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-10" ;
-        crm:P115 "2019-02-10" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/228/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:228 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
+    crm:P14_carried_out_by "鳥羽区" ;
+    crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM2B5CJTM2BOQIP002.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-10" ;
+        crm:P115_finishes "2019-02-10" 
+    ] .</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="409.6">
@@ -3523,32 +3523,32 @@
         <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N27" s="12">
         <v>3</v>
       </c>
       <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:236
+        <v>ifcp:236
     rdfs:label "五十猛のグロ"@ja .
-&lt;https://w3id.org/ifcp/236/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:236 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
-    crm:P14 "大浦グロ保存会" ;
-    crm:P67 &lt;https://mainichi.jp/articles/20190112/ddl/k32/040/340000c&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-11" ;
-        crm:P115 "2019-01-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/236/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:236 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
+    crm:P14_carried_out_by "大浦グロ保存会" ;
+    crm:P67_refers_to &lt;https://mainichi.jp/articles/20190112/ddl/k32/040/340000c&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-11" ;
+        crm:P115_finishes "2019-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="409.6">
@@ -3580,32 +3580,32 @@
         <v>10</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s">
         <v>248</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M28" t="s">
-        <v>249</v>
       </c>
       <c r="N28" s="12">
         <v>3</v>
       </c>
       <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:240
+        <v>ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
-&lt;https://w3id.org/ifcp/240/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:240 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
-    crm:P14 "えんずのわり保存会" ;
-    crm:P67 &lt;https://hibishinbun.com/news/?a=9291&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-11" ;
-        crm:P115 "2019-01-16" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/240/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:240 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
+    crm:P14_carried_out_by "えんずのわり保存会" ;
+    crm:P67_refers_to &lt;https://hibishinbun.com/news/?a=9291&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-11" ;
+        crm:P115_finishes "2019-01-16" 
+    ] .</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="409.6">
@@ -3637,32 +3637,32 @@
         <v>51</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N29" s="12">
         <v>1</v>
       </c>
       <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:245
+        <v>ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
-&lt;https://w3id.org/ifcp/245/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:245 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
-    crm:P14 "東光寺追儺式及び田遊び保存会" ;
-    crm:P67 &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-08" ;
-        crm:P115 "2019-01-08" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/245/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:245 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
+    crm:P14_carried_out_by "東光寺追儺式及び田遊び保存会" ;
+    crm:P67_refers_to &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-08" ;
+        crm:P115_finishes "2019-01-08" 
+    ] .</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="409.6">
@@ -3694,32 +3694,32 @@
         <v>59</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N30" s="12">
         <v>3</v>
       </c>
       <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:250
+        <v>ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
-&lt;https://w3id.org/ifcp/250/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:250 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
-    crm:P14 "酒津とんど祭り保存会" ;
-    crm:P67 &lt;https://www.sankei.com/photo/daily/news/190112/dly1901120008-n1.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-12" ;
-        crm:P115 "2019-01-13" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/250/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:250 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
+    crm:P14_carried_out_by "酒津とんど祭り保存会" ;
+    crm:P67_refers_to &lt;https://www.sankei.com/photo/daily/news/190112/dly1901120008-n1.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-12" ;
+        crm:P115_finishes "2019-01-13" 
+    ] .</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="409.6">
@@ -3751,32 +3751,32 @@
         <v>98</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N31" s="12">
         <v>4</v>
       </c>
       <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:253
+        <v>ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/253/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:253 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
-    crm:P14 "三島町年中行事保存会" ;
-    crm:P67 &lt;https://www.nihon-kankou.or.jp/fukushima/074446/detail/07444ba2212035019&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-15" ;
-        crm:P115 "2019-01-15" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/253/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:253 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
+    crm:P14_carried_out_by "三島町年中行事保存会" ;
+    crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/fukushima/074446/detail/07444ba2212035019&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-15" ;
+        crm:P115_finishes "2019-01-15" 
+    ] .</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="409.6">
@@ -3802,38 +3802,38 @@
         <v>132</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J32" t="s">
         <v>65</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N32" s="12">
         <v>1</v>
       </c>
       <c r="O32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:264
+        <v>ifcp:264
     rdfs:label "阿月の神明祭"@ja .
-&lt;https://w3id.org/ifcp/264/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:264 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
-    crm:P14 "神明祭顕彰会" ;
-    crm:P67 &lt;https://www.city-yanai.jp/site/kanko/atsukishinmei.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-11" ;
-        crm:P115 "2019-02-11" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/264/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:264 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
+    crm:P14_carried_out_by "神明祭顕彰会" ;
+    crm:P67_refers_to &lt;https://www.city-yanai.jp/site/kanko/atsukishinmei.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-11" ;
+        crm:P115_finishes "2019-02-11" 
+    ] .</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="409.6">
@@ -3865,10 +3865,10 @@
         <v>36</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M33" t="s">
         <v>106</v>
@@ -3878,19 +3878,19 @@
       </c>
       <c r="O33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:266
+        <v>ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/266/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:266 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
-    crm:P14 "塞の神まつり保存会" ;
-    crm:P67 &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-13" ;
-        crm:P115 "2019-01-13" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/266/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:266 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
+    crm:P14_carried_out_by "塞の神まつり保存会" ;
+    crm:P67_refers_to &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-13" ;
+        crm:P115_finishes "2019-01-13" 
+    ] .</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="409.6">
@@ -3922,32 +3922,32 @@
         <v>31</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N34" s="12">
         <v>3</v>
       </c>
       <c r="O34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:269
+        <v>ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
-&lt;https://w3id.org/ifcp/269/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:269 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
-    crm:P14 "三戸お精霊流し保存会" ;
-    crm:P67 &lt;https://www.kanaloco.jp/article/entry-188969.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-16" ;
-        crm:P115 "2019-08-16" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/269/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:269 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
+    crm:P14_carried_out_by "三戸お精霊流し保存会" ;
+    crm:P67_refers_to &lt;https://www.kanaloco.jp/article/entry-188969.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-16" ;
+        crm:P115_finishes "2019-08-16" 
+    ] .</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="409.6">
@@ -3979,10 +3979,10 @@
         <v>54</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M35" t="s">
         <v>107</v>
@@ -3992,19 +3992,19 @@
       </c>
       <c r="O35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:277
+        <v>ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
-&lt;https://w3id.org/ifcp/277/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:277 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
-    crm:P14 "江包・大西の御綱祭り保存会" ;
-    crm:P67 &lt;http://www.pref.nara.jp/17619.htm&gt; ;
-    crm:P4 [
-        crm:P116 "2019-02-09" ;
-        crm:P115 "2019-02-11" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/277/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:277 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
+    crm:P14_carried_out_by "江包・大西の御綱祭り保存会" ;
+    crm:P67_refers_to &lt;http://www.pref.nara.jp/17619.htm&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-02-09" ;
+        crm:P115_finishes "2019-02-11" 
+    ] .</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="409.6">
@@ -4036,10 +4036,10 @@
         <v>67</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s">
         <v>108</v>
@@ -4049,19 +4049,19 @@
       </c>
       <c r="O36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:278
+        <v>ifcp:278
     rdfs:label "地福のトイトイ"@ja .
-&lt;https://w3id.org/ifcp/278/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:278 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
-    crm:P14 "地福といとい保存会" ;
-    crm:P67 &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-01-14" ;
-        crm:P115 "2019-01-14" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/278/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:278 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
+    crm:P14_carried_out_by "地福といとい保存会" ;
+    crm:P67_refers_to &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-01-14" ;
+        crm:P115_finishes "2019-01-14" 
+    ] .</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="409.6">
@@ -4093,32 +4093,32 @@
         <v>82</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M37" t="s">
         <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M37" t="s">
-        <v>259</v>
       </c>
       <c r="N37" s="12">
         <v>4</v>
       </c>
       <c r="O37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:298
+        <v>ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
-&lt;https://w3id.org/ifcp/298/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:298 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
-    crm:P14 "悪石島の盆踊り保存会" ;
-    crm:P67 &lt;https://www.nihon-kankou.or.jp/kagoshima/463043/detail/46304ba2210142370&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-16" ;
-        crm:P115 "2019-08-16" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/298/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:298 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
+    crm:P14_carried_out_by "悪石島の盆踊り保存会" ;
+    crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/kagoshima/463043/detail/46304ba2210142370&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-16" ;
+        crm:P115_finishes "2019-08-16" 
+    ] .</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="8" customFormat="1" ht="409.6">
@@ -4150,32 +4150,32 @@
         <v>85</v>
       </c>
       <c r="K38" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="M38" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N38" s="12">
         <v>1</v>
       </c>
       <c r="O38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">ifcp:299
+        <v>ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
-&lt;https://w3id.org/ifcp/299/held/2019/&gt;
-    rdf:type crm:E5 ;
-    crm:P12 2019 ;
-    crm:P17 ifcp:299 ;
-    crm:P7 &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
-    crm:P14 "硫黄島八朔太鼓踊り保存会" ;
-    crm:P67 &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
-    crm:P4 [
-        crm:P116 "2019-08-30" ;
-        crm:P115 "2019-08-31" 
-    ] . </v>
+&lt;https://w3id.org/ifcp/299/held/2018/&gt;
+    rdf:type crm:E5_Event ;
+    crm:P12_occurred_in_the_presence_of 2019 ;
+    crm:P17_was_motivated_by ifcp:299 ;
+    crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
+    crm:P14_carried_out_by "硫黄島八朔太鼓踊り保存会" ;
+    crm:P67_refers_to &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
+    crm:P4_has_time-span [
+        crm:P116_starts "2019-08-30" ;
+        crm:P115_finishes "2019-08-31" 
+    ] .</v>
       </c>
     </row>
     <row r="39" spans="1:15">

--- a/list_p5_event_2019.xlsx
+++ b/list_p5_event_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97722BAD-1782-9C4C-9CED-CBEEFCCD5CD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A328CA5B-2C49-EE4A-8774-66E15852DF9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
     crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
@@ -2088,7 +2088,7 @@
     ] ."</f>
         <v>ifcp:49
     rdfs:label "甑島のトシドン"@ja .
-&lt;https://w3id.org/ifcp/49/held/2018/&gt;
+&lt;https://w3id.org/ifcp/49/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:49 ;
@@ -2144,7 +2144,7 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O38" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
     crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
@@ -2157,7 +2157,7 @@
     ] ."</f>
         <v>ifcp:51
     rdfs:label "男鹿のナマハゲ"@ja .
-&lt;https://w3id.org/ifcp/51/held/2018/&gt;
+&lt;https://w3id.org/ifcp/51/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:51 ;
@@ -2217,7 +2217,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/67/held/2019/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:67 ;
@@ -2277,7 +2277,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/67/held/2019/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:67 ;
@@ -2334,7 +2334,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
-&lt;https://w3id.org/ifcp/109/held/2018/&gt;
+&lt;https://w3id.org/ifcp/109/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:109 ;
@@ -2391,7 +2391,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
-&lt;https://w3id.org/ifcp/110/held/2018/&gt;
+&lt;https://w3id.org/ifcp/110/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:110 ;
@@ -2448,7 +2448,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
-&lt;https://w3id.org/ifcp/124/held/2018/&gt;
+&lt;https://w3id.org/ifcp/124/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:124 ;
@@ -2503,7 +2503,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
-&lt;https://w3id.org/ifcp/131/held/2018/&gt;
+&lt;https://w3id.org/ifcp/131/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:131 ;
@@ -2560,7 +2560,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
-&lt;https://w3id.org/ifcp/135/held/2018/&gt;
+&lt;https://w3id.org/ifcp/135/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:135 ;
@@ -2617,7 +2617,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
-&lt;https://w3id.org/ifcp/138/held/2018/&gt;
+&lt;https://w3id.org/ifcp/138/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:138 ;
@@ -2674,7 +2674,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
-&lt;https://w3id.org/ifcp/140/held/2018/&gt;
+&lt;https://w3id.org/ifcp/140/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:140 ;
@@ -2731,7 +2731,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/145/held/2018/&gt;
+&lt;https://w3id.org/ifcp/145/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:145 ;
@@ -2788,7 +2788,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
-&lt;https://w3id.org/ifcp/156/held/2018/&gt;
+&lt;https://w3id.org/ifcp/156/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:156 ;
@@ -2845,7 +2845,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
-&lt;https://w3id.org/ifcp/158/held/2018/&gt;
+&lt;https://w3id.org/ifcp/158/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:158 ;
@@ -2902,7 +2902,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
-&lt;https://w3id.org/ifcp/162/held/2018/&gt;
+&lt;https://w3id.org/ifcp/162/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:162 ;
@@ -2959,7 +2959,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
-&lt;https://w3id.org/ifcp/167/held/2018/&gt;
+&lt;https://w3id.org/ifcp/167/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:167 ;
@@ -3016,7 +3016,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:179
     rdfs:label "大磯の左義長"@ja .
-&lt;https://w3id.org/ifcp/179/held/2018/&gt;
+&lt;https://w3id.org/ifcp/179/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:179 ;
@@ -3073,7 +3073,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/188/held/2018/&gt;
+&lt;https://w3id.org/ifcp/188/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:188 ;
@@ -3133,7 +3133,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/195/held/2019/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:195 ;
@@ -3193,7 +3193,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/195/held/2019/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:195 ;
@@ -3253,7 +3253,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2018/3&gt;
+&lt;https://w3id.org/ifcp/195/held/2019/3&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:195 ;
@@ -3310,7 +3310,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:204
     rdfs:label "米川の水かぶり"@ja .
-&lt;https://w3id.org/ifcp/204/held/2018/&gt;
+&lt;https://w3id.org/ifcp/204/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:204 ;
@@ -3367,7 +3367,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:218
     rdfs:label "見島のカセドリ"@ja .
-&lt;https://w3id.org/ifcp/218/held/2018/&gt;
+&lt;https://w3id.org/ifcp/218/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:218 ;
@@ -3424,7 +3424,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
-&lt;https://w3id.org/ifcp/221/held/2018/&gt;
+&lt;https://w3id.org/ifcp/221/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:221 ;
@@ -3481,7 +3481,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
-&lt;https://w3id.org/ifcp/228/held/2018/&gt;
+&lt;https://w3id.org/ifcp/228/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:228 ;
@@ -3538,7 +3538,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:236
     rdfs:label "五十猛のグロ"@ja .
-&lt;https://w3id.org/ifcp/236/held/2018/&gt;
+&lt;https://w3id.org/ifcp/236/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:236 ;
@@ -3595,7 +3595,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
-&lt;https://w3id.org/ifcp/240/held/2018/&gt;
+&lt;https://w3id.org/ifcp/240/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:240 ;
@@ -3652,7 +3652,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
-&lt;https://w3id.org/ifcp/245/held/2018/&gt;
+&lt;https://w3id.org/ifcp/245/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:245 ;
@@ -3709,7 +3709,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
-&lt;https://w3id.org/ifcp/250/held/2018/&gt;
+&lt;https://w3id.org/ifcp/250/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:250 ;
@@ -3766,7 +3766,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/253/held/2018/&gt;
+&lt;https://w3id.org/ifcp/253/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:253 ;
@@ -3823,7 +3823,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:264
     rdfs:label "阿月の神明祭"@ja .
-&lt;https://w3id.org/ifcp/264/held/2018/&gt;
+&lt;https://w3id.org/ifcp/264/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:264 ;
@@ -3880,7 +3880,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/266/held/2018/&gt;
+&lt;https://w3id.org/ifcp/266/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:266 ;
@@ -3937,7 +3937,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
-&lt;https://w3id.org/ifcp/269/held/2018/&gt;
+&lt;https://w3id.org/ifcp/269/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:269 ;
@@ -3994,7 +3994,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
-&lt;https://w3id.org/ifcp/277/held/2018/&gt;
+&lt;https://w3id.org/ifcp/277/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:277 ;
@@ -4051,7 +4051,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:278
     rdfs:label "地福のトイトイ"@ja .
-&lt;https://w3id.org/ifcp/278/held/2018/&gt;
+&lt;https://w3id.org/ifcp/278/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:278 ;
@@ -4108,7 +4108,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
-&lt;https://w3id.org/ifcp/298/held/2018/&gt;
+&lt;https://w3id.org/ifcp/298/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:298 ;
@@ -4165,7 +4165,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
-&lt;https://w3id.org/ifcp/299/held/2018/&gt;
+&lt;https://w3id.org/ifcp/299/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P17_was_motivated_by ifcp:299 ;

--- a/list_p5_event_2019.xlsx
+++ b/list_p5_event_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Desktop/研究/ifcp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Dropbox/My Mac (dhcp5-128.slis.tsukuba.ac.jp)/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A328CA5B-2C49-EE4A-8774-66E15852DF9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D4472-AD8D-3942-AC10-3D15DE697E20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,27 +2075,29 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A2&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A2&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I2&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J2&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M2&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K2&amp;""" ;
         crm:P115_finishes """&amp;L2&amp;""" 
     ] ."</f>
         <v>ifcp:49
     rdfs:label "甑島のトシドン"@ja .
-&lt;https://w3id.org/ifcp/49/held/2019/&gt;
+&lt;https://w3id.org/ifcp/49/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:49 ;
+    crm:P21_had_general_purpose ifcp:49 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46215-20041012&gt; ;
     crm:P14_carried_out_by "甑島トシドン保存会（手打港トシドン保存会，手打麓トシドン保存会，手打本町トシドン保存会，片野浦トシドン保存会，青瀬トシドン保存会，瀬々野浦トシドン保存会）" ;
     crm:P67_refers_to &lt;https://www.welcomekyushu.jp/event/?mode=detail&amp;id=9999900047564&amp;isSpot=&amp;isEvent=1&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-12-31" ;
         crm:P115_finishes "2019-12-31" 
     ] .</v>
@@ -2144,27 +2146,29 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O38" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
-    crm:P17_was_motivated_by ifcp:"&amp;A3&amp;" ;
+    crm:P21_had_general_purpose ifcp:"&amp;A3&amp;" ;
     crm:P7_took_place_at &lt;"&amp;I3&amp;"&gt; ;
     crm:P14_carried_out_by """&amp;J3&amp;""" ;
     crm:P67_refers_to &lt;"&amp;M3&amp;"&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts """&amp;K3&amp;""" ;
         crm:P115_finishes """&amp;L3&amp;""" 
     ] ."</f>
         <v>ifcp:51
     rdfs:label "男鹿のナマハゲ"@ja .
-&lt;https://w3id.org/ifcp/51/held/2019/&gt;
+&lt;https://w3id.org/ifcp/51/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:51 ;
+    crm:P21_had_general_purpose ifcp:51 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05206-20050322&gt; ;
     crm:P14_carried_out_by "男鹿のナマハゲ保存会" ;
     crm:P67_refers_to &lt;https://matsuri-no-hi.com/matsuri/14616&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-12-31" ;
         crm:P115_finishes "2019-12-31" 
     ] .</v>
@@ -2217,14 +2221,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2019/1&gt;
+&lt;https://w3id.org/ifcp/67/held/2018/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P21_had_general_purpose ifcp:67 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17204-20060201&gt; ;
     crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67_refers_to &lt;https://wajimanavi.jp/event/アマメハギ&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-02" ;
         crm:P115_finishes "2019-01-02" 
     ] .</v>
@@ -2277,14 +2282,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2019/2&gt;
+&lt;https://w3id.org/ifcp/67/held/2018/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:67 ;
+    crm:P21_had_general_purpose ifcp:67 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C17463-20050301&gt; ;
     crm:P14_carried_out_by "能登のアマメハギ・面様年頭保存会（能登町秋吉地区アマメハギ保存会，門前町アマメハギ保存会，輪島市面様年頭保存会）" ;
     crm:P67_refers_to &lt;https://wajimanavi.jp/event/アマメハギ&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-02" ;
         crm:P115_finishes "2019-01-02" 
     ] .</v>
@@ -2334,14 +2340,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
-&lt;https://w3id.org/ifcp/109/held/2019/&gt;
+&lt;https://w3id.org/ifcp/109/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:109 ;
+    crm:P21_had_general_purpose ifcp:109 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46223-20071201&gt; ;
     crm:P14_carried_out_by "枕崎市十五夜行事保存会，知覧町十五夜行事保存会，坊津町十五夜行事保存会" ;
     crm:P67_refers_to &lt;https://blogs.mbc.co.jp/mbcnews/5983&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-09-14" ;
         crm:P115_finishes "2019-09-14" 
     ] .</v>
@@ -2391,14 +2398,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
-&lt;https://w3id.org/ifcp/110/held/2019/&gt;
+&lt;https://w3id.org/ifcp/110/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:110 ;
+    crm:P21_had_general_purpose ifcp:110 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C05434-20170222&gt; ;
     crm:P14_carried_out_by "六郷町カマクラ保存会" ;
     crm:P67_refers_to &lt;https://mainichi.jp/articles/20190226/k00/00m/040/182000c&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-11" ;
         crm:P115_finishes "2019-02-15" 
     ] .</v>
@@ -2448,14 +2456,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
-&lt;https://w3id.org/ifcp/124/held/2019/&gt;
+&lt;https://w3id.org/ifcp/124/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:124 ;
+    crm:P21_had_general_purpose ifcp:124 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46527-19750210&gt; ;
     crm:P14_carried_out_by "秋名ヒラセマンカイ保存会" ;
     crm:P67_refers_to &lt;https://www.city.amami.lg.jp/bunka/event/arasetsu.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-09-06" ;
         crm:P115_finishes "2019-09-06" 
     ] .</v>
@@ -2503,14 +2512,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
-&lt;https://w3id.org/ifcp/131/held/2019/&gt;
+&lt;https://w3id.org/ifcp/131/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:131 ;
+    crm:P21_had_general_purpose ifcp:131 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C11381-19890301&gt; ;
     crm:P14_carried_out_by "猪俣の百八灯保存会" ;
     crm:P67_refers_to &lt;https://www.saihokunavi.net/event/event.shtml?id=51&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-15" ;
         crm:P115_finishes "2019-08-15" 
     ] .</v>
@@ -2560,14 +2570,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
-&lt;https://w3id.org/ifcp/135/held/2019/&gt;
+&lt;https://w3id.org/ifcp/135/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:135 ;
+    crm:P21_had_general_purpose ifcp:135 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C42211-20040801&gt; ;
     crm:P14_carried_out_by "下崎山町内会" ;
     crm:P67_refers_to &lt;https://www.nishinippon.co.jp/item/n/480689/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-20" ;
         crm:P115_finishes "2019-01-20" 
     ] .</v>
@@ -2617,14 +2628,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
-&lt;https://w3id.org/ifcp/138/held/2019/&gt;
+&lt;https://w3id.org/ifcp/138/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:138 ;
+    crm:P21_had_general_purpose ifcp:138 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S152161460&gt; ;
     crm:P14_carried_out_by "青海竹のからかい保存会" ;
     crm:P67_refers_to &lt;https://www.city.itoigawa.lg.jp/item/22603.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-15" ;
         crm:P115_finishes "2019-01-15" 
     ] .</v>
@@ -2674,14 +2686,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
-&lt;https://w3id.org/ifcp/140/held/2019/&gt;
+&lt;https://w3id.org/ifcp/140/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:140 ;
+    crm:P21_had_general_purpose ifcp:140 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C24211-19700401&gt; ;
     crm:P14_carried_out_by "松尾地下，河内地下" ;
     crm:P67_refers_to &lt;https://www.bunka.pref.mie.lg.jp/Miebunka/mobile/bunkazaiMobile/detail/730770&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-15" ;
         crm:P115_finishes "2019-08-15" 
     ] .</v>
@@ -2731,14 +2744,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/145/held/2019/&gt;
+&lt;https://w3id.org/ifcp/145/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:145 ;
+    crm:P21_had_general_purpose ifcp:145 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352081260&gt; ;
     crm:P14_carried_out_by "祖生柱松行事保存会　中村柱松保存会，山田柱松保存会，落合柱松保存会" ;
     crm:P67_refers_to &lt;https://www.oidemase.or.jp/tourism-information/spots/11689&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-15" ;
         crm:P115_finishes "2019-08-23" 
     ] .</v>
@@ -2788,14 +2802,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
-&lt;https://w3id.org/ifcp/156/held/2019/&gt;
+&lt;https://w3id.org/ifcp/156/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:156 ;
+    crm:P21_had_general_purpose ifcp:156 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C20563-19700401&gt; ;
     crm:P14_carried_out_by "野沢温泉村野沢組" ;
     crm:P67_refers_to &lt;https://nozawakanko.jp/record/dosojin/&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-13" ;
         crm:P115_finishes "2019-01-15" 
     ] .</v>
@@ -2845,14 +2860,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
-&lt;https://w3id.org/ifcp/158/held/2019/&gt;
+&lt;https://w3id.org/ifcp/158/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:158 ;
+    crm:P21_had_general_purpose ifcp:158 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C47214-20051001&gt; ;
     crm:P14_carried_out_by "宮古島市島尻自治会，宮古島市野原部落会" ;
     crm:P67_refers_to &lt;https://ryukyushimpo.jp/news/entry-1001679.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-10-04" ;
         crm:P115_finishes "2019-10-04" 
     ] .</v>
@@ -2902,14 +2918,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
-&lt;https://w3id.org/ifcp/162/held/2019/&gt;
+&lt;https://w3id.org/ifcp/162/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:162 ;
+    crm:P21_had_general_purpose ifcp:162 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C40203-20080401&gt; ;
     crm:P14_carried_out_by "大善寺玉垂宮鬼夜保存会" ;
     crm:P67_refers_to &lt;https://kurumefan.com/oniyo-kurume20200107#2019&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-07" ;
         crm:P115_finishes "2019-01-07" 
     ] .</v>
@@ -2959,14 +2976,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
-&lt;https://w3id.org/ifcp/167/held/2019/&gt;
+&lt;https://w3id.org/ifcp/167/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:167 ;
+    crm:P21_had_general_purpose ifcp:167 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29207-20050925&gt; ;
     crm:P14_carried_out_by "念仏寺鬼はしり保存会" ;
     crm:P67_refers_to &lt;https://www.city.gojo.lg.jp/kankou/dentou/4032.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-14" ;
         crm:P115_finishes "2019-01-14" 
     ] .</v>
@@ -3016,14 +3034,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:179
     rdfs:label "大磯の左義長"@ja .
-&lt;https://w3id.org/ifcp/179/held/2019/&gt;
+&lt;https://w3id.org/ifcp/179/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:179 ;
+    crm:P21_had_general_purpose ifcp:179 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14341-19700401&gt; ;
     crm:P14_carried_out_by "大磯町左義長保存会" ;
     crm:P67_refers_to &lt;https://www.enopo.jp/2017-08-26-14-18-45/mobile-event/24740-2019.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-13" ;
         crm:P115_finishes "2019-01-13" 
     ] .</v>
@@ -3073,14 +3092,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/188/held/2019/&gt;
+&lt;https://w3id.org/ifcp/188/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:188 ;
+    crm:P21_had_general_purpose ifcp:188 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S052140300&gt; ;
     crm:P14_carried_out_by "横岡サエの神保存会、大森サエの神保存会" ;
     crm:P67_refers_to &lt;https://common3.pref.akita.lg.jp/genkimura/village/detail.html?cid=24&amp;vid=4&amp;id=1130&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-15" ;
         crm:P115_finishes "2019-01-15" 
     ] .</v>
@@ -3133,14 +3153,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2019/1&gt;
+&lt;https://w3id.org/ifcp/195/held/2018/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P21_had_general_purpose ifcp:195 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
     crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-03" ;
         crm:P115_finishes "2019-01-3" 
     ] .</v>
@@ -3193,14 +3214,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2019/2&gt;
+&lt;https://w3id.org/ifcp/195/held/2018/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P21_had_general_purpose ifcp:195 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610240&gt; ;
     crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
     crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-01" ;
         crm:P115_finishes "2019-01-01" 
     ] .</v>
@@ -3253,14 +3275,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2019/3&gt;
+&lt;https://w3id.org/ifcp/195/held/2018/3&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:195 ;
+    crm:P21_had_general_purpose ifcp:195 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S064610241&gt; ;
     crm:P14_carried_out_by "遊佐のアマハゲ保存会" ;
     crm:P67_refers_to &lt;http://www.town.yuza.yamagata.jp/ou/kyoiku/bunka/8207.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-06" ;
         crm:P115_finishes "2019-01-06" 
     ] .</v>
@@ -3310,14 +3333,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:204
     rdfs:label "米川の水かぶり"@ja .
-&lt;https://w3id.org/ifcp/204/held/2019/&gt;
+&lt;https://w3id.org/ifcp/204/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:204 ;
+    crm:P21_had_general_purpose ifcp:204 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04212-20061001&gt; ;
     crm:P14_carried_out_by "米川の水かぶり保存会" ;
     crm:P67_refers_to &lt;https://www.city.tome.miyagi.jp/syogaigakusyu/shisejoho/bunkazai/raihousin.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-02" ;
         crm:P115_finishes "2019-02-02" 
     ] .</v>
@@ -3367,14 +3391,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:218
     rdfs:label "見島のカセドリ"@ja .
-&lt;https://w3id.org/ifcp/218/held/2019/&gt;
+&lt;https://w3id.org/ifcp/218/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:218 ;
+    crm:P21_had_general_purpose ifcp:218 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C41201-20140401&gt; ;
     crm:P14_carried_out_by "加勢鳥保存会" ;
     crm:P67_refers_to &lt;https://www.asobo-saga.jp/event/detail.html?id=3438&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-09" ;
         crm:P115_finishes "2019-02-09" 
     ] .</v>
@@ -3424,14 +3449,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
-&lt;https://w3id.org/ifcp/221/held/2019/&gt;
+&lt;https://w3id.org/ifcp/221/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:221 ;
+    crm:P21_had_general_purpose ifcp:221 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C03203-20011115&gt; ;
     crm:P14_carried_out_by "吉浜スネカ保存会" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM1H44CBM1HUJUB004.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-15" ;
         crm:P115_finishes "2019-01-15" 
     ] .</v>
@@ -3481,14 +3507,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
-&lt;https://w3id.org/ifcp/228/held/2019/&gt;
+&lt;https://w3id.org/ifcp/228/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:228 ;
+    crm:P21_had_general_purpose ifcp:228 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C23213-20110401&gt; ;
     crm:P14_carried_out_by "鳥羽区" ;
     crm:P67_refers_to &lt;https://www.asahi.com/articles/ASM2B5CJTM2BOQIP002.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-10" ;
         crm:P115_finishes "2019-02-10" 
     ] .</v>
@@ -3538,14 +3565,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:236
     rdfs:label "五十猛のグロ"@ja .
-&lt;https://w3id.org/ifcp/236/held/2019/&gt;
+&lt;https://w3id.org/ifcp/236/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:236 ;
+    crm:P21_had_general_purpose ifcp:236 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S322050140&gt; ;
     crm:P14_carried_out_by "大浦グロ保存会" ;
     crm:P67_refers_to &lt;https://mainichi.jp/articles/20190112/ddl/k32/040/340000c&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-11" ;
         crm:P115_finishes "2019-01-15" 
     ] .</v>
@@ -3595,14 +3623,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
-&lt;https://w3id.org/ifcp/240/held/2019/&gt;
+&lt;https://w3id.org/ifcp/240/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:240 ;
+    crm:P21_had_general_purpose ifcp:240 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C04214-20200201&gt; ;
     crm:P14_carried_out_by "えんずのわり保存会" ;
     crm:P67_refers_to &lt;https://hibishinbun.com/news/?a=9291&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-11" ;
         crm:P115_finishes "2019-01-16" 
     ] .</v>
@@ -3652,14 +3681,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
-&lt;https://w3id.org/ifcp/245/held/2019/&gt;
+&lt;https://w3id.org/ifcp/245/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:245 ;
+    crm:P21_had_general_purpose ifcp:245 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C28220-19941201&gt; ;
     crm:P14_carried_out_by "東光寺追儺式及び田遊び保存会" ;
     crm:P67_refers_to &lt;http://www.city.kasai.hyogo.jp/02kank/02muse/matsu/matur03.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-08" ;
         crm:P115_finishes "2019-01-08" 
     ] .</v>
@@ -3709,14 +3739,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
-&lt;https://w3id.org/ifcp/250/held/2019/&gt;
+&lt;https://w3id.org/ifcp/250/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:250 ;
+    crm:P21_had_general_purpose ifcp:250 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C31341-20041101&gt; ;
     crm:P14_carried_out_by "酒津とんど祭り保存会" ;
     crm:P67_refers_to &lt;https://www.sankei.com/photo/daily/news/190112/dly1901120008-n1.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-12" ;
         crm:P115_finishes "2019-01-13" 
     ] .</v>
@@ -3766,14 +3797,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/253/held/2019/&gt;
+&lt;https://w3id.org/ifcp/253/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:253 ;
+    crm:P21_had_general_purpose ifcp:253 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C07444-19700401&gt; ;
     crm:P14_carried_out_by "三島町年中行事保存会" ;
     crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/fukushima/074446/detail/07444ba2212035019&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-15" ;
         crm:P115_finishes "2019-01-15" 
     ] .</v>
@@ -3823,14 +3855,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:264
     rdfs:label "阿月の神明祭"@ja .
-&lt;https://w3id.org/ifcp/264/held/2019/&gt;
+&lt;https://w3id.org/ifcp/264/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:264 ;
+    crm:P21_had_general_purpose ifcp:264 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S352120100&gt; ;
     crm:P14_carried_out_by "神明祭顕彰会" ;
     crm:P67_refers_to &lt;https://www.city-yanai.jp/site/kanko/atsukishinmei.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-11" ;
         crm:P115_finishes "2019-02-11" 
     ] .</v>
@@ -3880,14 +3913,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/266/held/2019/&gt;
+&lt;https://w3id.org/ifcp/266/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:266 ;
+    crm:P21_had_general_purpose ifcp:266 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/smallArea/g00200521/2015/S202030350&gt; ;
     crm:P14_carried_out_by "塞の神まつり保存会" ;
     crm:P67_refers_to &lt;https://www.town.nyuzen.toyama.jp/bunka/kyoiku/bunka/bunkazai/mukei/sainokami.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-13" ;
         crm:P115_finishes "2019-01-13" 
     ] .</v>
@@ -3937,14 +3971,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
-&lt;https://w3id.org/ifcp/269/held/2019/&gt;
+&lt;https://w3id.org/ifcp/269/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:269 ;
+    crm:P21_had_general_purpose ifcp:269 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C14210-19700401&gt; ;
     crm:P14_carried_out_by "三戸お精霊流し保存会" ;
     crm:P67_refers_to &lt;https://www.kanaloco.jp/article/entry-188969.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-16" ;
         crm:P115_finishes "2019-08-16" 
     ] .</v>
@@ -3994,14 +4029,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
-&lt;https://w3id.org/ifcp/277/held/2019/&gt;
+&lt;https://w3id.org/ifcp/277/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:277 ;
+    crm:P21_had_general_purpose ifcp:277 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C29206-19700401&gt; ;
     crm:P14_carried_out_by "江包・大西の御綱祭り保存会" ;
     crm:P67_refers_to &lt;http://www.pref.nara.jp/17619.htm&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-02-09" ;
         crm:P115_finishes "2019-02-11" 
     ] .</v>
@@ -4051,14 +4087,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:278
     rdfs:label "地福のトイトイ"@ja .
-&lt;https://w3id.org/ifcp/278/held/2019/&gt;
+&lt;https://w3id.org/ifcp/278/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:278 ;
+    crm:P21_had_general_purpose ifcp:278 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C35203-20100116&gt; ;
     crm:P14_carried_out_by "地福といとい保存会" ;
     crm:P67_refers_to &lt;https://www.city.yamaguchi.lg.jp/site/movie/19833.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-01-14" ;
         crm:P115_finishes "2019-01-14" 
     ] .</v>
@@ -4108,14 +4145,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
-&lt;https://w3id.org/ifcp/298/held/2019/&gt;
+&lt;https://w3id.org/ifcp/298/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:298 ;
+    crm:P21_had_general_purpose ifcp:298 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46522-19730401&gt; ;
     crm:P14_carried_out_by "悪石島の盆踊り保存会" ;
     crm:P67_refers_to &lt;https://www.nihon-kankou.or.jp/kagoshima/463043/detail/46304ba2210142370&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-16" ;
         crm:P115_finishes "2019-08-16" 
     ] .</v>
@@ -4165,14 +4203,15 @@
         <f t="shared" si="0"/>
         <v>ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
-&lt;https://w3id.org/ifcp/299/held/2019/&gt;
+&lt;https://w3id.org/ifcp/299/held/2018/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
-    crm:P17_was_motivated_by ifcp:299 ;
+    crm:P21_had_general_purpose ifcp:299 ;
     crm:P7_took_place_at &lt;http://data.e-stat.go.jp/lod/sac/C46521-19730401&gt; ;
     crm:P14_carried_out_by "硫黄島八朔太鼓踊り保存会" ;
     crm:P67_refers_to &lt;https://www.pref.kagoshima.jp/ak01/chiiki/kagoshima/takarabako/traditional/ioujimanomendon.html&gt; ;
     crm:P4_has_time-span [
+        rdf:type crm:E52_Time-Span ;
         crm:P116_starts "2019-08-30" ;
         crm:P115_finishes "2019-08-31" 
     ] .</v>

--- a/list_p5_event_2019.xlsx
+++ b/list_p5_event_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itsumi/Dropbox/My Mac (dhcp5-128.slis.tsukuba.ac.jp)/Desktop/研究/ifcp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D4472-AD8D-3942-AC10-3D15DE697E20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D823B-B774-C34E-830A-021071E59921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
       <c r="O2" s="4" t="str">
         <f>"ifcp:"&amp;A2&amp;"
     rdfs:label """&amp;E2&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2018/"&amp;B2&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A2&amp;"/held/2019/"&amp;B2&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D2&amp;" ;
     crm:P21_had_general_purpose ifcp:"&amp;A2&amp;" ;
@@ -2089,7 +2089,7 @@
     ] ."</f>
         <v>ifcp:49
     rdfs:label "甑島のトシドン"@ja .
-&lt;https://w3id.org/ifcp/49/held/2018/&gt;
+&lt;https://w3id.org/ifcp/49/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:49 ;
@@ -2146,7 +2146,7 @@
       <c r="O3" s="4" t="str">
         <f t="shared" ref="O3:O38" si="0">"ifcp:"&amp;A3&amp;"
     rdfs:label """&amp;E3&amp;"""@ja .
-&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2018/"&amp;B3&amp;"&gt;
+&lt;https://w3id.org/ifcp/"&amp;A3&amp;"/held/2019/"&amp;B3&amp;"&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of "&amp;D3&amp;" ;
     crm:P21_had_general_purpose ifcp:"&amp;A3&amp;" ;
@@ -2160,7 +2160,7 @@
     ] ."</f>
         <v>ifcp:51
     rdfs:label "男鹿のナマハゲ"@ja .
-&lt;https://w3id.org/ifcp/51/held/2018/&gt;
+&lt;https://w3id.org/ifcp/51/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:51 ;
@@ -2221,7 +2221,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/67/held/2019/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:67 ;
@@ -2282,7 +2282,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:67
     rdfs:label "能登のアマメハギ"@ja .
-&lt;https://w3id.org/ifcp/67/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/67/held/2019/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:67 ;
@@ -2340,7 +2340,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:109
     rdfs:label "南薩摩の十五夜行事"@ja .
-&lt;https://w3id.org/ifcp/109/held/2018/&gt;
+&lt;https://w3id.org/ifcp/109/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:109 ;
@@ -2398,7 +2398,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:110
     rdfs:label "六郷のカマクラ行事"@ja .
-&lt;https://w3id.org/ifcp/110/held/2018/&gt;
+&lt;https://w3id.org/ifcp/110/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:110 ;
@@ -2456,7 +2456,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:124
     rdfs:label "秋名のアラセツ行事"@ja .
-&lt;https://w3id.org/ifcp/124/held/2018/&gt;
+&lt;https://w3id.org/ifcp/124/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:124 ;
@@ -2512,7 +2512,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:131
     rdfs:label "猪俣の百八燈"@ja .
-&lt;https://w3id.org/ifcp/131/held/2018/&gt;
+&lt;https://w3id.org/ifcp/131/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:131 ;
@@ -2570,7 +2570,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:135
     rdfs:label "下崎山のヘトマト行事"@ja .
-&lt;https://w3id.org/ifcp/135/held/2018/&gt;
+&lt;https://w3id.org/ifcp/135/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:135 ;
@@ -2628,7 +2628,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:138
     rdfs:label "青海の竹のからかい"@ja .
-&lt;https://w3id.org/ifcp/138/held/2018/&gt;
+&lt;https://w3id.org/ifcp/138/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:138 ;
@@ -2686,7 +2686,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:140
     rdfs:label "志摩加茂五郷の盆祭行事"@ja .
-&lt;https://w3id.org/ifcp/140/held/2018/&gt;
+&lt;https://w3id.org/ifcp/140/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:140 ;
@@ -2744,7 +2744,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:145
     rdfs:label "周防祖生の柱松行事"@ja .
-&lt;https://w3id.org/ifcp/145/held/2018/&gt;
+&lt;https://w3id.org/ifcp/145/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:145 ;
@@ -2802,7 +2802,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:156
     rdfs:label "野沢温泉の道祖神祭り"@ja .
-&lt;https://w3id.org/ifcp/156/held/2018/&gt;
+&lt;https://w3id.org/ifcp/156/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:156 ;
@@ -2860,7 +2860,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:158
     rdfs:label "宮古島のパーントゥ"@ja .
-&lt;https://w3id.org/ifcp/158/held/2018/&gt;
+&lt;https://w3id.org/ifcp/158/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:158 ;
@@ -2918,7 +2918,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:162
     rdfs:label "大善寺玉垂宮の鬼夜"@ja .
-&lt;https://w3id.org/ifcp/162/held/2018/&gt;
+&lt;https://w3id.org/ifcp/162/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:162 ;
@@ -2976,7 +2976,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:167
     rdfs:label "陀々堂の鬼はしり"@ja .
-&lt;https://w3id.org/ifcp/167/held/2018/&gt;
+&lt;https://w3id.org/ifcp/167/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:167 ;
@@ -3034,7 +3034,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:179
     rdfs:label "大磯の左義長"@ja .
-&lt;https://w3id.org/ifcp/179/held/2018/&gt;
+&lt;https://w3id.org/ifcp/179/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:179 ;
@@ -3092,7 +3092,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:188
     rdfs:label "上郷の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/188/held/2018/&gt;
+&lt;https://w3id.org/ifcp/188/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:188 ;
@@ -3153,7 +3153,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2018/1&gt;
+&lt;https://w3id.org/ifcp/195/held/2019/1&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:195 ;
@@ -3214,7 +3214,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2018/2&gt;
+&lt;https://w3id.org/ifcp/195/held/2019/2&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:195 ;
@@ -3275,7 +3275,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:195
     rdfs:label "遊佐の小正月行事"@ja .
-&lt;https://w3id.org/ifcp/195/held/2018/3&gt;
+&lt;https://w3id.org/ifcp/195/held/2019/3&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:195 ;
@@ -3333,7 +3333,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:204
     rdfs:label "米川の水かぶり"@ja .
-&lt;https://w3id.org/ifcp/204/held/2018/&gt;
+&lt;https://w3id.org/ifcp/204/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:204 ;
@@ -3391,7 +3391,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:218
     rdfs:label "見島のカセドリ"@ja .
-&lt;https://w3id.org/ifcp/218/held/2018/&gt;
+&lt;https://w3id.org/ifcp/218/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:218 ;
@@ -3449,7 +3449,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:221
     rdfs:label "吉浜のスネカ"@ja .
-&lt;https://w3id.org/ifcp/221/held/2018/&gt;
+&lt;https://w3id.org/ifcp/221/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:221 ;
@@ -3507,7 +3507,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:228
     rdfs:label "鳥羽の火祭り"@ja .
-&lt;https://w3id.org/ifcp/228/held/2018/&gt;
+&lt;https://w3id.org/ifcp/228/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:228 ;
@@ -3565,7 +3565,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:236
     rdfs:label "五十猛のグロ"@ja .
-&lt;https://w3id.org/ifcp/236/held/2018/&gt;
+&lt;https://w3id.org/ifcp/236/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:236 ;
@@ -3623,7 +3623,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:240
     rdfs:label "月浜のえんずのわり"@ja .
-&lt;https://w3id.org/ifcp/240/held/2018/&gt;
+&lt;https://w3id.org/ifcp/240/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:240 ;
@@ -3681,7 +3681,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:245
     rdfs:label "東光寺の鬼会"@ja .
-&lt;https://w3id.org/ifcp/245/held/2018/&gt;
+&lt;https://w3id.org/ifcp/245/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:245 ;
@@ -3739,7 +3739,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:250
     rdfs:label "酒津のトンドウ"@ja .
-&lt;https://w3id.org/ifcp/250/held/2018/&gt;
+&lt;https://w3id.org/ifcp/250/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:250 ;
@@ -3797,7 +3797,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:253
     rdfs:label "三島のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/253/held/2018/&gt;
+&lt;https://w3id.org/ifcp/253/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:253 ;
@@ -3855,7 +3855,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:264
     rdfs:label "阿月の神明祭"@ja .
-&lt;https://w3id.org/ifcp/264/held/2018/&gt;
+&lt;https://w3id.org/ifcp/264/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:264 ;
@@ -3913,7 +3913,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:266
     rdfs:label "邑町のサイノカミ"@ja .
-&lt;https://w3id.org/ifcp/266/held/2018/&gt;
+&lt;https://w3id.org/ifcp/266/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:266 ;
@@ -3971,7 +3971,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:269
     rdfs:label "三戸のオショロ流し"@ja .
-&lt;https://w3id.org/ifcp/269/held/2018/&gt;
+&lt;https://w3id.org/ifcp/269/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:269 ;
@@ -4029,7 +4029,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:277
     rdfs:label "江包・大西の御綱"@ja .
-&lt;https://w3id.org/ifcp/277/held/2018/&gt;
+&lt;https://w3id.org/ifcp/277/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:277 ;
@@ -4087,7 +4087,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:278
     rdfs:label "地福のトイトイ"@ja .
-&lt;https://w3id.org/ifcp/278/held/2018/&gt;
+&lt;https://w3id.org/ifcp/278/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:278 ;
@@ -4145,7 +4145,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:298
     rdfs:label "悪石島のボゼ"@ja .
-&lt;https://w3id.org/ifcp/298/held/2018/&gt;
+&lt;https://w3id.org/ifcp/298/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:298 ;
@@ -4203,7 +4203,7 @@
         <f t="shared" si="0"/>
         <v>ifcp:299
     rdfs:label "薩摩硫黄島のメンドン"@ja .
-&lt;https://w3id.org/ifcp/299/held/2018/&gt;
+&lt;https://w3id.org/ifcp/299/held/2019/&gt;
     rdf:type crm:E5_Event ;
     crm:P12_occurred_in_the_presence_of 2019 ;
     crm:P21_had_general_purpose ifcp:299 ;
